--- a/Calculos/MoS_bueno1.xlsx
+++ b/Calculos/MoS_bueno1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Documents\GitHub\Minisat_est_Analisis_RJ\Calculos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Minisat_est_Analisis_RJ\Calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F387DA11-631B-41EF-8893-FA54E20291F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CE90A6-F353-47A2-8B59-DF2CA56AC6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MoS Estatico X" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="52">
   <si>
     <t>Shell 2D Elements</t>
   </si>
@@ -191,6 +191,9 @@
   <si>
     <t>M_Z</t>
   </si>
+  <si>
+    <t>Corregido</t>
+  </si>
 </sst>
 </file>
 
@@ -271,7 +274,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3435,47 +3458,47 @@
     <mergeCell ref="Q36:R36"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:M7 L13:M14">
-    <cfRule type="cellIs" dxfId="43" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:M19">
-    <cfRule type="cellIs" dxfId="41" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M24">
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:M28">
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5933,47 +5956,47 @@
     <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:M7 L13:M14">
-    <cfRule type="cellIs" dxfId="32" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:M19">
-    <cfRule type="cellIs" dxfId="30" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M24">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:M28">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8430,47 +8453,47 @@
     <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:M7 L13:M14">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:M19">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M24">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:M28">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8483,7 +8506,7 @@
   <dimension ref="B1:AK65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9252,11 +9275,41 @@
       </c>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2">
+        <v>267000000</v>
+      </c>
+      <c r="E14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F14">
+        <v>1.2</v>
+      </c>
+      <c r="G14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I14">
+        <v>1.25</v>
+      </c>
+      <c r="J14" s="2">
+        <v>434000000</v>
+      </c>
+      <c r="K14" s="2">
+        <v>510000000</v>
+      </c>
+      <c r="L14" s="3">
+        <f>(J14/PRODUCT(D14:H14))-1</f>
+        <v>1.7698575503385383E-2</v>
+      </c>
+      <c r="M14" s="3">
+        <f>(K14/(D14*E14*F14*G14*I14))-1</f>
+        <v>5.2403503884606906E-2</v>
+      </c>
       <c r="P14">
         <v>9</v>
       </c>
@@ -10920,7 +10973,15 @@
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="Q36:R36"/>
   </mergeCells>
-  <conditionalFormatting sqref="L6:M7 L13:M14">
+  <conditionalFormatting sqref="L6:M7 L13:M13">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:M19">
     <cfRule type="cellIs" dxfId="10" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10928,7 +10989,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17:M19">
+  <conditionalFormatting sqref="L23:M24">
     <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10936,7 +10997,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L23:M24">
+  <conditionalFormatting sqref="L27:M28">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -10944,20 +11005,20 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27:M28">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:M14">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/Calculos/MoS_bueno1.xlsx
+++ b/Calculos/MoS_bueno1.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javiv\Documents\GitHub\Minisat_est_Analisis_RJ\Calculos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafa\Documents\GitHub\Minisat_est_Analisis_RJ\Calculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CE90A6-F353-47A2-8B59-DF2CA56AC6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B51E299-8F16-4920-9A7C-D24A770FD792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MoS Estatico X" sheetId="1" r:id="rId1"/>
     <sheet name="MoS Estatico Y" sheetId="2" r:id="rId2"/>
     <sheet name="MoS Estatico Z" sheetId="3" r:id="rId3"/>
     <sheet name="Seno x" sheetId="4" r:id="rId4"/>
+    <sheet name="Seno z" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="51">
   <si>
     <t>Shell 2D Elements</t>
   </si>
@@ -191,9 +192,6 @@
   <si>
     <t>M_Z</t>
   </si>
-  <si>
-    <t>Corregido</t>
-  </si>
 </sst>
 </file>
 
@@ -256,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -270,11 +268,143 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3458,47 +3588,47 @@
     <mergeCell ref="Q36:R36"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:M7 L13:M14">
-    <cfRule type="cellIs" dxfId="45" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:M19">
-    <cfRule type="cellIs" dxfId="43" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M24">
-    <cfRule type="cellIs" dxfId="41" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:M28">
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17">
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5956,47 +6086,47 @@
     <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:M7 L13:M14">
-    <cfRule type="cellIs" dxfId="34" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:M19">
-    <cfRule type="cellIs" dxfId="32" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M24">
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:M28">
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8453,47 +8583,47 @@
     <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <conditionalFormatting sqref="L6:M7 L13:M14">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:M19">
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:M24">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:M28">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8505,8 +8635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF71C30C-B3DA-491B-B9AB-D717A9293A94}">
   <dimension ref="B1:AK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8671,7 +8801,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>171000000</v>
+        <v>134000000</v>
       </c>
       <c r="E6">
         <v>1.1000000000000001</v>
@@ -8696,11 +8826,11 @@
       </c>
       <c r="L6" s="3">
         <f>(J6/PRODUCT(D6:H6))-1</f>
-        <v>0.58903812666318078</v>
+        <v>1.0278023855179392</v>
       </c>
       <c r="M6" s="3">
         <f>(K6/(E6*F6*G6*I6*D6))-1</f>
-        <v>0.64322652360929866</v>
+        <v>1.0969532502775379</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -8728,39 +8858,39 @@
       </c>
       <c r="X6" s="5">
         <f>AE6</f>
-        <v>780.39499999999998</v>
+        <v>785.26990000000001</v>
       </c>
       <c r="Y6" s="2">
         <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
-        <v>0.58032847762356776</v>
+        <v>0.580315171985891</v>
       </c>
       <c r="Z6" s="2">
         <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
-        <v>0.82886801266669852</v>
+        <v>0.82884646683888619</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>780.39499999999998</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>812.17600000000004</v>
-      </c>
-      <c r="AG6" s="2">
-        <v>1374.5029999999999</v>
-      </c>
-      <c r="AH6" s="2">
-        <v>5.2183120000000001E-3</v>
-      </c>
-      <c r="AI6" s="2">
-        <v>64.534260000000003</v>
-      </c>
-      <c r="AJ6" s="2">
-        <v>58.191490000000002</v>
+      <c r="AD6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="10">
+        <v>785.26990000000001</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>773.84789999999998</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>1308.703</v>
+      </c>
+      <c r="AH6" s="10">
+        <v>6.3805449999999996E-3</v>
+      </c>
+      <c r="AI6" s="10">
+        <v>63.478259999999999</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>59.65475</v>
       </c>
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.25">
@@ -8795,39 +8925,39 @@
       </c>
       <c r="X7" s="5">
         <f t="shared" ref="X7:X17" si="0">AE7</f>
-        <v>6908.277</v>
+        <v>6805.8729999999996</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" ref="Y7:Y17" si="1">((Q7*U7)/(R7+S7*X7*T7))-1</f>
-        <v>0.56377795348517412</v>
+        <v>0.56405168324282617</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
-        <v>0.80217924001155372</v>
+        <v>0.80261883898620856</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="9">
         <v>2</v>
       </c>
-      <c r="AE7" s="2">
-        <v>6908.277</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>893.18910000000005</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>869.28369999999995</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>4.2080069999999997E-3</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>207.9211</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>4.2485150000000003</v>
+      <c r="AE7" s="10">
+        <v>6805.8729999999996</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>1020.66</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>835.40620000000001</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>5.7016259999999996E-3</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>209.20070000000001</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>5.7935600000000003</v>
       </c>
     </row>
     <row r="8" spans="2:37" x14ac:dyDescent="0.25">
@@ -8857,39 +8987,39 @@
       </c>
       <c r="X8" s="5">
         <f t="shared" si="0"/>
-        <v>6908.1679999999997</v>
+        <v>6805.7470000000003</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="1"/>
-        <v>0.56377824479535077</v>
+        <v>0.56405202010461042</v>
       </c>
       <c r="Z8" s="2">
         <f t="shared" si="2"/>
-        <v>0.80217970781179093</v>
+        <v>0.80261938000998079</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="9">
         <v>3</v>
       </c>
-      <c r="AE8" s="2">
-        <v>6908.1679999999997</v>
-      </c>
-      <c r="AF8" s="2">
-        <v>893.19359999999995</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>869.29330000000004</v>
-      </c>
-      <c r="AH8" s="2">
-        <v>4.2078000000000003E-3</v>
-      </c>
-      <c r="AI8" s="2">
-        <v>207.9194</v>
-      </c>
-      <c r="AJ8" s="2">
-        <v>4.2471079999999999</v>
+      <c r="AE8" s="10">
+        <v>6805.7470000000003</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>1020.668</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>835.38530000000003</v>
+      </c>
+      <c r="AH8" s="10">
+        <v>5.7079499999999998E-3</v>
+      </c>
+      <c r="AI8" s="10">
+        <v>209.1987</v>
+      </c>
+      <c r="AJ8" s="10">
+        <v>5.791836</v>
       </c>
     </row>
     <row r="9" spans="2:37" x14ac:dyDescent="0.25">
@@ -8920,39 +9050,39 @@
       </c>
       <c r="X9" s="5">
         <f t="shared" si="0"/>
-        <v>780.42340000000002</v>
+        <v>785.30759999999998</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="1"/>
-        <v>0.58032840010746001</v>
+        <v>0.58031506908772212</v>
       </c>
       <c r="Z9" s="2">
         <f t="shared" si="2"/>
-        <v>0.82886788714439508</v>
+        <v>0.82884630021637817</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="9">
         <v>4</v>
       </c>
-      <c r="AE9" s="2">
-        <v>780.42340000000002</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>812.19920000000002</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>1374.4829999999999</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>5.2185340000000004E-3</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>64.534469999999999</v>
-      </c>
-      <c r="AJ9" s="2">
-        <v>58.191989999999997</v>
+      <c r="AE9" s="10">
+        <v>785.30759999999998</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>773.87639999999999</v>
+      </c>
+      <c r="AG9" s="10">
+        <v>1308.675</v>
+      </c>
+      <c r="AH9" s="10">
+        <v>6.3805809999999998E-3</v>
+      </c>
+      <c r="AI9" s="10">
+        <v>63.47869</v>
+      </c>
+      <c r="AJ9" s="10">
+        <v>59.65551</v>
       </c>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.25">
@@ -8982,39 +9112,39 @@
       </c>
       <c r="X10" s="5">
         <f t="shared" si="0"/>
-        <v>2686.1990000000001</v>
+        <v>2695.8029999999999</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="1"/>
-        <v>0.57514376481880758</v>
+        <v>0.57511772342207301</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="2"/>
-        <v>0.82048335813822759</v>
+        <v>0.82044129967442037</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="9">
         <v>5</v>
       </c>
-      <c r="AE10" s="2">
-        <v>2686.1990000000001</v>
-      </c>
-      <c r="AF10" s="2">
-        <v>801.51599999999996</v>
-      </c>
-      <c r="AG10" s="2">
-        <v>4183.3</v>
-      </c>
-      <c r="AH10" s="2">
-        <v>1.7941660000000002E-2</v>
-      </c>
-      <c r="AI10" s="2">
-        <v>34.465110000000003</v>
-      </c>
-      <c r="AJ10" s="2">
-        <v>91.763289999999998</v>
+      <c r="AE10" s="10">
+        <v>2695.8029999999999</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>721.10490000000004</v>
+      </c>
+      <c r="AG10" s="10">
+        <v>4192.8029999999999</v>
+      </c>
+      <c r="AH10" s="10">
+        <v>2.0736310000000001E-2</v>
+      </c>
+      <c r="AI10" s="10">
+        <v>30.430019999999999</v>
+      </c>
+      <c r="AJ10" s="10">
+        <v>94.224620000000002</v>
       </c>
     </row>
     <row r="11" spans="2:37" x14ac:dyDescent="0.25">
@@ -9047,39 +9177,39 @@
       </c>
       <c r="X11" s="5">
         <f t="shared" si="0"/>
-        <v>2686.2370000000001</v>
+        <v>2695.8420000000001</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="1"/>
-        <v>0.5751436617795147</v>
+        <v>0.57511761767471636</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="2"/>
-        <v>0.82048319172231743</v>
+        <v>0.82044112888703613</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="9">
         <v>6</v>
       </c>
-      <c r="AE11" s="2">
-        <v>2686.2370000000001</v>
-      </c>
-      <c r="AF11" s="2">
-        <v>801.4982</v>
-      </c>
-      <c r="AG11" s="2">
-        <v>4183.3230000000003</v>
-      </c>
-      <c r="AH11" s="2">
-        <v>1.7935510000000002E-2</v>
-      </c>
-      <c r="AI11" s="2">
-        <v>34.465699999999998</v>
-      </c>
-      <c r="AJ11" s="2">
-        <v>91.763980000000004</v>
+      <c r="AE11" s="10">
+        <v>2695.8420000000001</v>
+      </c>
+      <c r="AF11" s="10">
+        <v>721.07860000000005</v>
+      </c>
+      <c r="AG11" s="10">
+        <v>4192.83</v>
+      </c>
+      <c r="AH11" s="10">
+        <v>2.0731240000000001E-2</v>
+      </c>
+      <c r="AI11" s="10">
+        <v>30.430610000000001</v>
+      </c>
+      <c r="AJ11" s="10">
+        <v>94.225499999999997</v>
       </c>
     </row>
     <row r="12" spans="2:37" x14ac:dyDescent="0.25">
@@ -9142,39 +9272,39 @@
       </c>
       <c r="X12" s="5">
         <f t="shared" si="0"/>
-        <v>2686.0210000000002</v>
+        <v>2695.8820000000001</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="1"/>
-        <v>0.57514424747672899</v>
+        <v>0.57511750921590399</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="2"/>
-        <v>0.82048413766579165</v>
+        <v>0.8204409537205215</v>
       </c>
       <c r="AC12">
         <v>0</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="9">
         <v>7</v>
       </c>
-      <c r="AE12" s="2">
-        <v>2686.0210000000002</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>801.45240000000001</v>
-      </c>
-      <c r="AG12" s="2">
-        <v>4183.2780000000002</v>
-      </c>
-      <c r="AH12" s="2">
-        <v>1.793604E-2</v>
-      </c>
-      <c r="AI12" s="2">
-        <v>34.465780000000002</v>
-      </c>
-      <c r="AJ12" s="2">
-        <v>91.757249999999999</v>
+      <c r="AE12" s="10">
+        <v>2695.8820000000001</v>
+      </c>
+      <c r="AF12" s="10">
+        <v>721.10270000000003</v>
+      </c>
+      <c r="AG12" s="10">
+        <v>4192.7790000000005</v>
+      </c>
+      <c r="AH12" s="10">
+        <v>2.0731309999999999E-2</v>
+      </c>
+      <c r="AI12" s="10">
+        <v>30.43102</v>
+      </c>
+      <c r="AJ12" s="10">
+        <v>94.227289999999996</v>
       </c>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.25">
@@ -9182,7 +9312,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="2">
-        <v>274000000</v>
+        <v>267000000</v>
       </c>
       <c r="E13">
         <v>1.1000000000000001</v>
@@ -9207,11 +9337,11 @@
       </c>
       <c r="L13" s="3">
         <f>(J13/PRODUCT(D13:H13))-1</f>
-        <v>-8.3010231408617852E-3</v>
+        <v>1.7698575503385383E-2</v>
       </c>
       <c r="M13" s="3">
         <f>(K13/(D13*E13*F13*G13*I13))-1</f>
-        <v>2.5517282982445488E-2</v>
+        <v>5.2403503884606906E-2</v>
       </c>
       <c r="P13">
         <v>8</v>
@@ -9239,77 +9369,46 @@
       </c>
       <c r="X13" s="5">
         <f t="shared" si="0"/>
-        <v>780.41729999999995</v>
+        <v>785.3107</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="1"/>
-        <v>0.58032841675704572</v>
+        <v>0.58031506062659988</v>
       </c>
       <c r="Z13" s="2">
         <f t="shared" si="2"/>
-        <v>0.82886791410517024</v>
+        <v>0.82884628651532433</v>
       </c>
       <c r="AC13">
         <v>0</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="9">
         <v>8</v>
       </c>
-      <c r="AE13" s="2">
-        <v>780.41729999999995</v>
-      </c>
-      <c r="AF13" s="2">
-        <v>812.14660000000003</v>
-      </c>
-      <c r="AG13" s="2">
-        <v>1374.4960000000001</v>
-      </c>
-      <c r="AH13" s="2">
-        <v>5.2178290000000002E-3</v>
-      </c>
-      <c r="AI13" s="2">
-        <v>64.532709999999994</v>
-      </c>
-      <c r="AJ13" s="2">
-        <v>58.189770000000003</v>
+      <c r="AE13" s="10">
+        <v>785.3107</v>
+      </c>
+      <c r="AF13" s="10">
+        <v>773.84320000000002</v>
+      </c>
+      <c r="AG13" s="10">
+        <v>1308.662</v>
+      </c>
+      <c r="AH13" s="10">
+        <v>6.3799379999999999E-3</v>
+      </c>
+      <c r="AI13" s="10">
+        <v>63.48028</v>
+      </c>
+      <c r="AJ13" s="10">
+        <v>59.656480000000002</v>
       </c>
     </row>
     <row r="14" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="2">
-        <v>267000000</v>
-      </c>
-      <c r="E14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F14">
-        <v>1.2</v>
-      </c>
-      <c r="G14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I14">
-        <v>1.25</v>
-      </c>
-      <c r="J14" s="2">
-        <v>434000000</v>
-      </c>
-      <c r="K14" s="2">
-        <v>510000000</v>
-      </c>
-      <c r="L14" s="3">
-        <f>(J14/PRODUCT(D14:H14))-1</f>
-        <v>1.7698575503385383E-2</v>
-      </c>
-      <c r="M14" s="3">
-        <f>(K14/(D14*E14*F14*G14*I14))-1</f>
-        <v>5.2403503884606906E-2</v>
-      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
       <c r="P14">
         <v>9</v>
       </c>
@@ -9336,39 +9435,39 @@
       </c>
       <c r="X14" s="5">
         <f t="shared" si="0"/>
-        <v>780.38819999999998</v>
+        <v>785.27239999999995</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="1"/>
-        <v>0.58032849618376359</v>
+        <v>0.58031516516240456</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="2"/>
-        <v>0.82886804272133707</v>
+        <v>0.82884645578964733</v>
       </c>
       <c r="AC14">
         <v>0</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="9">
         <v>9</v>
       </c>
-      <c r="AE14" s="2">
-        <v>780.38819999999998</v>
-      </c>
-      <c r="AF14" s="2">
-        <v>812.12609999999995</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>1374.5219999999999</v>
-      </c>
-      <c r="AH14" s="2">
-        <v>5.2179949999999996E-3</v>
-      </c>
-      <c r="AI14" s="2">
-        <v>64.532470000000004</v>
-      </c>
-      <c r="AJ14" s="2">
-        <v>58.18929</v>
+      <c r="AE14" s="10">
+        <v>785.27239999999995</v>
+      </c>
+      <c r="AF14" s="10">
+        <v>773.81769999999995</v>
+      </c>
+      <c r="AG14" s="10">
+        <v>1308.6959999999999</v>
+      </c>
+      <c r="AH14" s="10">
+        <v>6.3800890000000002E-3</v>
+      </c>
+      <c r="AI14" s="10">
+        <v>63.479810000000001</v>
+      </c>
+      <c r="AJ14" s="10">
+        <v>59.655749999999998</v>
       </c>
     </row>
     <row r="15" spans="2:37" x14ac:dyDescent="0.25">
@@ -9398,39 +9497,39 @@
       </c>
       <c r="X15" s="5">
         <f t="shared" si="0"/>
-        <v>2685.9929999999999</v>
+        <v>2695.8530000000001</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="1"/>
-        <v>0.57514432340047383</v>
+        <v>0.5751175878485415</v>
       </c>
       <c r="Z15" s="2">
         <f t="shared" si="2"/>
-        <v>0.8204842602881659</v>
+        <v>0.82044108071624122</v>
       </c>
       <c r="AC15">
         <v>0</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="9">
         <v>10</v>
       </c>
-      <c r="AE15" s="2">
-        <v>2685.9929999999999</v>
-      </c>
-      <c r="AF15" s="2">
-        <v>801.46839999999997</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>4183.2659999999996</v>
-      </c>
-      <c r="AH15" s="2">
-        <v>1.794101E-2</v>
-      </c>
-      <c r="AI15" s="2">
-        <v>34.46519</v>
-      </c>
-      <c r="AJ15" s="2">
-        <v>91.756770000000003</v>
+      <c r="AE15" s="10">
+        <v>2695.8530000000001</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>721.12739999999997</v>
+      </c>
+      <c r="AG15" s="10">
+        <v>4192.7650000000003</v>
+      </c>
+      <c r="AH15" s="10">
+        <v>2.0735759999999999E-2</v>
+      </c>
+      <c r="AI15" s="10">
+        <v>30.430420000000002</v>
+      </c>
+      <c r="AJ15" s="10">
+        <v>94.226659999999995</v>
       </c>
     </row>
     <row r="16" spans="2:37" x14ac:dyDescent="0.25">
@@ -9493,39 +9592,39 @@
       </c>
       <c r="X16" s="5">
         <f t="shared" si="0"/>
-        <v>6908.1009999999997</v>
+        <v>6805.9769999999999</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="1"/>
-        <v>0.56377842385762333</v>
+        <v>0.56405140519828811</v>
       </c>
       <c r="Z16" s="2">
         <f t="shared" si="2"/>
-        <v>0.80217999535884621</v>
+        <v>0.80261839242714905</v>
       </c>
       <c r="AC16">
         <v>0</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="9">
         <v>11</v>
       </c>
-      <c r="AE16" s="2">
-        <v>6908.1009999999997</v>
-      </c>
-      <c r="AF16" s="2">
-        <v>893.05989999999997</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>869.23979999999995</v>
-      </c>
-      <c r="AH16" s="2">
-        <v>4.2066380000000004E-3</v>
-      </c>
-      <c r="AI16" s="2">
-        <v>207.91630000000001</v>
-      </c>
-      <c r="AJ16" s="2">
-        <v>4.2459090000000002</v>
+      <c r="AE16" s="10">
+        <v>6805.9769999999999</v>
+      </c>
+      <c r="AF16" s="10">
+        <v>1020.513</v>
+      </c>
+      <c r="AG16" s="10">
+        <v>835.39980000000003</v>
+      </c>
+      <c r="AH16" s="10">
+        <v>5.7069829999999997E-3</v>
+      </c>
+      <c r="AI16" s="10">
+        <v>209.20519999999999</v>
+      </c>
+      <c r="AJ16" s="10">
+        <v>5.7904260000000001</v>
       </c>
     </row>
     <row r="17" spans="3:36" x14ac:dyDescent="0.25">
@@ -9533,7 +9632,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="2">
-        <v>13700000</v>
+        <v>12700000</v>
       </c>
       <c r="E17">
         <v>1.1000000000000001</v>
@@ -9558,11 +9657,11 @@
       </c>
       <c r="L17" s="3">
         <f>(J17/PRODUCT(D17:H17))-1</f>
-        <v>18.833979537182771</v>
+        <v>20.39571020940188</v>
       </c>
       <c r="M17" s="3">
         <f>(K17/(PRODUCT(D17:G17)*I17))-1</f>
-        <v>19.510345659648912</v>
+        <v>21.125333506865356</v>
       </c>
       <c r="P17">
         <v>12</v>
@@ -9590,39 +9689,39 @@
       </c>
       <c r="X17" s="5">
         <f t="shared" si="0"/>
-        <v>6908.2070000000003</v>
+        <v>6806.0990000000002</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="1"/>
-        <v>0.56377814056509168</v>
+        <v>0.56405107903078311</v>
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="2"/>
-        <v>0.80217954043369644</v>
+        <v>0.80261786857930351</v>
       </c>
       <c r="AC17">
         <v>0</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" s="9">
         <v>12</v>
       </c>
-      <c r="AE17" s="2">
-        <v>6908.2070000000003</v>
-      </c>
-      <c r="AF17" s="2">
-        <v>893.07339999999999</v>
-      </c>
-      <c r="AG17" s="2">
-        <v>869.22979999999995</v>
-      </c>
-      <c r="AH17" s="2">
-        <v>4.207756E-3</v>
-      </c>
-      <c r="AI17" s="2">
-        <v>207.9179</v>
-      </c>
-      <c r="AJ17" s="2">
-        <v>4.2473549999999998</v>
+      <c r="AE17" s="10">
+        <v>6806.0990000000002</v>
+      </c>
+      <c r="AF17" s="10">
+        <v>1020.523</v>
+      </c>
+      <c r="AG17" s="10">
+        <v>835.42060000000004</v>
+      </c>
+      <c r="AH17" s="10">
+        <v>5.7010309999999996E-3</v>
+      </c>
+      <c r="AI17" s="10">
+        <v>209.2071</v>
+      </c>
+      <c r="AJ17" s="10">
+        <v>5.7922000000000002</v>
       </c>
     </row>
     <row r="18" spans="3:36" x14ac:dyDescent="0.25">
@@ -9682,11 +9781,11 @@
       </c>
       <c r="T22" s="5">
         <f>ABS(AE6)</f>
-        <v>780.39499999999998</v>
+        <v>785.26990000000001</v>
       </c>
       <c r="U22" s="4">
         <f>(Q22/((1-R22)*T22*S22))-1</f>
-        <v>16.637797608197214</v>
+        <v>16.528303408100914</v>
       </c>
     </row>
     <row r="23" spans="3:36" x14ac:dyDescent="0.25">
@@ -9708,11 +9807,11 @@
       </c>
       <c r="T23" s="5">
         <f t="shared" ref="T23:T33" si="3">ABS(AE7)</f>
-        <v>6908.277</v>
+        <v>6805.8729999999996</v>
       </c>
       <c r="U23" s="4">
         <f t="shared" ref="U23:U33" si="4">(Q23/((1-R23)*T23*S23))-1</f>
-        <v>0.99245760765659274</v>
+        <v>1.0224369547373371</v>
       </c>
     </row>
     <row r="24" spans="3:36" x14ac:dyDescent="0.25">
@@ -9735,11 +9834,11 @@
       </c>
       <c r="T24" s="5">
         <f t="shared" si="3"/>
-        <v>6908.1679999999997</v>
+        <v>6805.7470000000003</v>
       </c>
       <c r="U24" s="4">
         <f t="shared" si="4"/>
-        <v>0.99248904549644212</v>
+        <v>1.0224743976596637</v>
       </c>
       <c r="AC24" s="6"/>
     </row>
@@ -9758,11 +9857,11 @@
       </c>
       <c r="T25" s="5">
         <f t="shared" si="3"/>
-        <v>780.42340000000002</v>
+        <v>785.30759999999998</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" si="4"/>
-        <v>16.637155759872222</v>
+        <v>16.527461932686077</v>
       </c>
     </row>
     <row r="26" spans="3:36" x14ac:dyDescent="0.25">
@@ -9781,11 +9880,11 @@
       </c>
       <c r="T26" s="5">
         <f t="shared" si="3"/>
-        <v>2686.1990000000001</v>
+        <v>2695.8029999999999</v>
       </c>
       <c r="U26" s="4">
         <f t="shared" si="4"/>
-        <v>4.1241360243411096</v>
+        <v>4.1058809061526622</v>
       </c>
     </row>
     <row r="27" spans="3:36" x14ac:dyDescent="0.25">
@@ -9807,11 +9906,11 @@
       </c>
       <c r="T27" s="5">
         <f t="shared" si="3"/>
-        <v>2686.2370000000001</v>
+        <v>2695.8420000000001</v>
       </c>
       <c r="U27" s="4">
         <f t="shared" si="4"/>
-        <v>4.1240635373755419</v>
+        <v>4.1058070407869094</v>
       </c>
     </row>
     <row r="28" spans="3:36" x14ac:dyDescent="0.25">
@@ -9834,11 +9933,11 @@
       </c>
       <c r="T28" s="5">
         <f t="shared" si="3"/>
-        <v>2686.0210000000002</v>
+        <v>2695.8820000000001</v>
       </c>
       <c r="U28" s="4">
         <f t="shared" si="4"/>
-        <v>4.1244755958531467</v>
+        <v>4.1057312836574695</v>
       </c>
     </row>
     <row r="29" spans="3:36" x14ac:dyDescent="0.25">
@@ -9856,11 +9955,11 @@
       </c>
       <c r="T29" s="5">
         <f t="shared" si="3"/>
-        <v>780.41729999999995</v>
+        <v>785.3107</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="4"/>
-        <v>16.637293617721014</v>
+        <v>16.527392743342304</v>
       </c>
     </row>
     <row r="30" spans="3:36" x14ac:dyDescent="0.25">
@@ -9878,11 +9977,11 @@
       </c>
       <c r="T30" s="5">
         <f t="shared" si="3"/>
-        <v>780.38819999999998</v>
+        <v>785.27239999999995</v>
       </c>
       <c r="U30" s="4">
         <f t="shared" si="4"/>
-        <v>16.637951297122466</v>
+        <v>16.528247604842683</v>
       </c>
       <c r="W30" s="2"/>
     </row>
@@ -9901,11 +10000,11 @@
       </c>
       <c r="T31" s="5">
         <f t="shared" si="3"/>
-        <v>2685.9929999999999</v>
+        <v>2695.8530000000001</v>
       </c>
       <c r="U31" s="4">
         <f t="shared" si="4"/>
-        <v>4.1245290156932892</v>
+        <v>4.1057862073522049</v>
       </c>
     </row>
     <row r="32" spans="3:36" x14ac:dyDescent="0.25">
@@ -9923,11 +10022,11 @@
       </c>
       <c r="T32" s="5">
         <f t="shared" si="3"/>
-        <v>6908.1009999999997</v>
+        <v>6805.9769999999999</v>
       </c>
       <c r="U32" s="4">
         <f t="shared" si="4"/>
-        <v>0.9925083701655586</v>
+        <v>1.0224060505125223</v>
       </c>
     </row>
     <row r="33" spans="16:23" x14ac:dyDescent="0.25">
@@ -9945,11 +10044,11 @@
       </c>
       <c r="T33" s="5">
         <f t="shared" si="3"/>
-        <v>6908.2070000000003</v>
+        <v>6806.0990000000002</v>
       </c>
       <c r="U33" s="4">
         <f t="shared" si="4"/>
-        <v>0.99247779698104921</v>
+        <v>1.0223697986833669</v>
       </c>
     </row>
     <row r="36" spans="16:23" x14ac:dyDescent="0.25">
@@ -10002,15 +10101,15 @@
       </c>
       <c r="U38" s="5">
         <f>ABS(AE6)</f>
-        <v>780.39499999999998</v>
+        <v>785.26990000000001</v>
       </c>
       <c r="V38" s="5">
         <f>SQRT(AF6^2 + AG6^2)</f>
-        <v>1596.5238338292982</v>
+        <v>1520.3763068870187</v>
       </c>
       <c r="W38" s="4">
         <f>(((Q38-(1-R38)*U38)*S38)/(T38*V38))-1</f>
-        <v>0.11766574580267686</v>
+        <v>0.17320300428640145</v>
       </c>
     </row>
     <row r="39" spans="16:23" x14ac:dyDescent="0.25">
@@ -10031,15 +10130,15 @@
       </c>
       <c r="U39" s="5">
         <f t="shared" ref="U39:U49" si="5">ABS(AE7)</f>
-        <v>6908.277</v>
+        <v>6805.8729999999996</v>
       </c>
       <c r="V39" s="5">
         <f t="shared" ref="V39:V49" si="6">SQRT(AF7^2 + AG7^2)</f>
-        <v>1246.3711002123325</v>
+        <v>1318.9580564212192</v>
       </c>
       <c r="W39" s="4">
         <f t="shared" ref="W39:W49" si="7">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
-        <v>-0.24401814826643942</v>
+        <v>-0.27495255587651379</v>
       </c>
     </row>
     <row r="40" spans="16:23" x14ac:dyDescent="0.25">
@@ -10060,15 +10159,15 @@
       </c>
       <c r="U40" s="5">
         <f t="shared" si="5"/>
-        <v>6908.1679999999997</v>
+        <v>6805.7470000000003</v>
       </c>
       <c r="V40" s="5">
         <f t="shared" si="6"/>
-        <v>1246.381020597574</v>
+        <v>1318.9510095830285</v>
       </c>
       <c r="W40" s="4">
         <f t="shared" si="7"/>
-        <v>-0.24401214682469941</v>
+        <v>-0.27493555350731558</v>
       </c>
     </row>
     <row r="41" spans="16:23" x14ac:dyDescent="0.25">
@@ -10089,15 +10188,15 @@
       </c>
       <c r="U41" s="5">
         <f>ABS(AE9)</f>
-        <v>780.42340000000002</v>
+        <v>785.30759999999998</v>
       </c>
       <c r="V41" s="5">
         <f t="shared" si="6"/>
-        <v>1596.5184176105329</v>
+        <v>1520.3667117185773</v>
       </c>
       <c r="W41" s="4">
         <f t="shared" si="7"/>
-        <v>0.11766709282801258</v>
+        <v>0.17320700070598405</v>
       </c>
     </row>
     <row r="42" spans="16:23" x14ac:dyDescent="0.25">
@@ -10118,15 +10217,15 @@
       </c>
       <c r="U42" s="5">
         <f t="shared" si="5"/>
-        <v>2686.1990000000001</v>
+        <v>2695.8029999999999</v>
       </c>
       <c r="V42" s="5">
         <f t="shared" si="6"/>
-        <v>4259.3927722453582</v>
+        <v>4254.3612062932561</v>
       </c>
       <c r="W42" s="4">
         <f t="shared" si="7"/>
-        <v>-0.64256217688909256</v>
+        <v>-0.64244967868841074</v>
       </c>
     </row>
     <row r="43" spans="16:23" x14ac:dyDescent="0.25">
@@ -10147,15 +10246,15 @@
       </c>
       <c r="U43" s="5">
         <f t="shared" si="5"/>
-        <v>2686.2370000000001</v>
+        <v>2695.8420000000001</v>
       </c>
       <c r="V43" s="5">
         <f t="shared" si="6"/>
-        <v>4259.4120118781939</v>
+        <v>4254.3833579354314</v>
       </c>
       <c r="W43" s="4">
         <f t="shared" si="7"/>
-        <v>-0.64256501748262018</v>
+        <v>-0.64245280018451156</v>
       </c>
     </row>
     <row r="44" spans="16:23" x14ac:dyDescent="0.25">
@@ -10176,15 +10275,15 @@
       </c>
       <c r="U44" s="5">
         <f t="shared" si="5"/>
-        <v>2686.0210000000002</v>
+        <v>2695.8820000000001</v>
       </c>
       <c r="V44" s="5">
         <f t="shared" si="6"/>
-        <v>4259.3591976669168</v>
+        <v>4254.337180664962</v>
       </c>
       <c r="W44" s="4">
         <f t="shared" si="7"/>
-        <v>-0.64255361618588513</v>
+        <v>-0.64245021143556502</v>
       </c>
     </row>
     <row r="45" spans="16:23" x14ac:dyDescent="0.25">
@@ -10205,15 +10304,15 @@
       </c>
       <c r="U45" s="5">
         <f t="shared" si="5"/>
-        <v>780.41729999999995</v>
+        <v>785.3107</v>
       </c>
       <c r="V45" s="5">
         <f t="shared" si="6"/>
-        <v>1596.5028512055844</v>
+        <v>1520.3386229489272</v>
       </c>
       <c r="W45" s="4">
         <f t="shared" si="7"/>
-        <v>0.11767851552784436</v>
+        <v>0.17322839588211947</v>
       </c>
     </row>
     <row r="46" spans="16:23" x14ac:dyDescent="0.25">
@@ -10234,15 +10333,15 @@
       </c>
       <c r="U46" s="5">
         <f t="shared" si="5"/>
-        <v>780.38819999999998</v>
+        <v>785.27239999999995</v>
       </c>
       <c r="V46" s="5">
         <f t="shared" si="6"/>
-        <v>1596.5148075684137</v>
+        <v>1520.3549102920967</v>
       </c>
       <c r="W46" s="4">
         <f t="shared" si="7"/>
-        <v>0.11767265012754535</v>
+        <v>0.17321928928528441</v>
       </c>
     </row>
     <row r="47" spans="16:23" x14ac:dyDescent="0.25">
@@ -10263,15 +10362,15 @@
       </c>
       <c r="U47" s="5">
         <f t="shared" si="5"/>
-        <v>2685.9929999999999</v>
+        <v>2695.8530000000001</v>
       </c>
       <c r="V47" s="5">
         <f t="shared" si="6"/>
-        <v>4259.3504226530313</v>
+        <v>4254.3275699287387</v>
       </c>
       <c r="W47" s="4">
         <f t="shared" si="7"/>
-        <v>-0.64255197635908345</v>
+        <v>-0.64244846691891599</v>
       </c>
     </row>
     <row r="48" spans="16:23" x14ac:dyDescent="0.25">
@@ -10292,15 +10391,15 @@
       </c>
       <c r="U48" s="5">
         <f t="shared" si="5"/>
-        <v>6908.1009999999997</v>
+        <v>6805.9769999999999</v>
       </c>
       <c r="V48" s="5">
         <f t="shared" si="6"/>
-        <v>1246.2478946389638</v>
+        <v>1318.840251512305</v>
       </c>
       <c r="W48" s="4">
         <f t="shared" si="7"/>
-        <v>-0.24392400278657511</v>
+        <v>-0.27489862851373936</v>
       </c>
     </row>
     <row r="49" spans="16:29" x14ac:dyDescent="0.25">
@@ -10321,15 +10420,15 @@
       </c>
       <c r="U49" s="5">
         <f t="shared" si="5"/>
-        <v>6908.2070000000003</v>
+        <v>6806.0990000000002</v>
       </c>
       <c r="V49" s="5">
         <f t="shared" si="6"/>
-        <v>1246.250593980039</v>
+        <v>1318.861164957616</v>
       </c>
       <c r="W49" s="4">
         <f t="shared" si="7"/>
-        <v>-0.24393732942862201</v>
+        <v>-0.27492283929076444</v>
       </c>
     </row>
     <row r="50" spans="16:29" x14ac:dyDescent="0.25">
@@ -10420,19 +10519,19 @@
       </c>
       <c r="Z54" s="5">
         <f>ABS(AE6)</f>
-        <v>780.39499999999998</v>
+        <v>785.26990000000001</v>
       </c>
       <c r="AA54" s="5">
         <f>SQRT(AF6^2 + AG6^2)</f>
-        <v>1596.5238338292982</v>
+        <v>1520.3763068870187</v>
       </c>
       <c r="AB54" s="2">
         <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
-        <v>0.56797121261438566</v>
+        <v>0.5690966343792736</v>
       </c>
       <c r="AC54" s="2">
         <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
-        <v>0.79202782859572696</v>
+        <v>0.79534422400999816</v>
       </c>
     </row>
     <row r="55" spans="16:29" x14ac:dyDescent="0.25">
@@ -10468,19 +10567,19 @@
       </c>
       <c r="Z55" s="5">
         <f t="shared" ref="Z55:Z65" si="8">ABS(AE7)</f>
-        <v>6908.277</v>
+        <v>6805.8729999999996</v>
       </c>
       <c r="AA55" s="5">
         <f t="shared" ref="AA55:AA65" si="9">SQRT(AF7^2 + AG7^2)</f>
-        <v>1246.3711002123325</v>
+        <v>1318.9580564212192</v>
       </c>
       <c r="AB55" s="2">
         <f t="shared" ref="AB55:AB65" si="10">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
-        <v>0.55644626364321215</v>
+        <v>0.55584376898752086</v>
       </c>
       <c r="AC55" s="2">
         <f t="shared" ref="AC55:AC65" si="11">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
-        <v>0.78042853601847906</v>
+        <v>0.77829586773688675</v>
       </c>
     </row>
     <row r="56" spans="16:29" x14ac:dyDescent="0.25">
@@ -10516,19 +10615,19 @@
       </c>
       <c r="Z56" s="5">
         <f t="shared" si="8"/>
-        <v>6908.1679999999997</v>
+        <v>6805.7470000000003</v>
       </c>
       <c r="AA56" s="5">
         <f t="shared" si="9"/>
-        <v>1246.381020597574</v>
+        <v>1318.9510095830285</v>
       </c>
       <c r="AB56" s="2">
         <f t="shared" si="10"/>
-        <v>0.55644643498226398</v>
+        <v>0.5558441875896809</v>
       </c>
       <c r="AC56" s="2">
         <f t="shared" si="11"/>
-        <v>0.78042864708032633</v>
+        <v>0.77829664181961888</v>
       </c>
     </row>
     <row r="57" spans="16:29" x14ac:dyDescent="0.25">
@@ -10564,19 +10663,19 @@
       </c>
       <c r="Z57" s="5">
         <f t="shared" si="8"/>
-        <v>780.42340000000002</v>
+        <v>785.30759999999998</v>
       </c>
       <c r="AA57" s="5">
         <f t="shared" si="9"/>
-        <v>1596.5184176105329</v>
+        <v>1520.3667117185773</v>
       </c>
       <c r="AB57" s="2">
         <f t="shared" si="10"/>
-        <v>0.56797121976571074</v>
+        <v>0.56909667375374129</v>
       </c>
       <c r="AC57" s="2">
         <f t="shared" si="11"/>
-        <v>0.79202795296587625</v>
+        <v>0.79534447769631678</v>
       </c>
     </row>
     <row r="58" spans="16:29" x14ac:dyDescent="0.25">
@@ -10612,19 +10711,19 @@
       </c>
       <c r="Z58" s="5">
         <f t="shared" si="8"/>
-        <v>2686.1990000000001</v>
+        <v>2695.8029999999999</v>
       </c>
       <c r="AA58" s="5">
         <f t="shared" si="9"/>
-        <v>4259.3927722453582</v>
+        <v>4254.3612062932561</v>
       </c>
       <c r="AB58" s="2">
         <f t="shared" si="10"/>
-        <v>0.49378542885320398</v>
+        <v>0.49394071587022181</v>
       </c>
       <c r="AC58" s="2">
         <f t="shared" si="11"/>
-        <v>0.60101327083704836</v>
+        <v>0.60141307645308872</v>
       </c>
     </row>
     <row r="59" spans="16:29" x14ac:dyDescent="0.25">
@@ -10660,19 +10759,19 @@
       </c>
       <c r="Z59" s="5">
         <f t="shared" si="8"/>
-        <v>2686.2370000000001</v>
+        <v>2695.8420000000001</v>
       </c>
       <c r="AA59" s="5">
         <f t="shared" si="9"/>
-        <v>4259.4120118781939</v>
+        <v>4254.3833579354314</v>
       </c>
       <c r="AB59" s="2">
         <f t="shared" si="10"/>
-        <v>0.49378466194372073</v>
+        <v>0.49393984452437967</v>
       </c>
       <c r="AC59" s="2">
         <f t="shared" si="11"/>
-        <v>0.60101151908435857</v>
+        <v>0.60141107444449005</v>
       </c>
     </row>
     <row r="60" spans="16:29" x14ac:dyDescent="0.25">
@@ -10708,19 +10807,19 @@
       </c>
       <c r="Z60" s="5">
         <f t="shared" si="8"/>
-        <v>2686.0210000000002</v>
+        <v>2695.8820000000001</v>
       </c>
       <c r="AA60" s="5">
         <f t="shared" si="9"/>
-        <v>4259.3591976669168</v>
+        <v>4254.337180664962</v>
       </c>
       <c r="AB60" s="2">
         <f t="shared" si="10"/>
-        <v>0.49378702546439501</v>
+        <v>0.49394138030318513</v>
       </c>
       <c r="AC60" s="2">
         <f t="shared" si="11"/>
-        <v>0.60101666046232105</v>
+        <v>0.60141488622271311</v>
       </c>
     </row>
     <row r="61" spans="16:29" x14ac:dyDescent="0.25">
@@ -10756,19 +10855,19 @@
       </c>
       <c r="Z61" s="5">
         <f t="shared" si="8"/>
-        <v>780.41729999999995</v>
+        <v>785.3107</v>
       </c>
       <c r="AA61" s="5">
         <f t="shared" si="9"/>
-        <v>1596.5028512055844</v>
+        <v>1520.3386229489272</v>
       </c>
       <c r="AB61" s="2">
         <f t="shared" si="10"/>
-        <v>0.56797147417812521</v>
+        <v>0.56909707558406497</v>
       </c>
       <c r="AC61" s="2">
         <f t="shared" si="11"/>
-        <v>0.79202867516110564</v>
+        <v>0.79534566880977997</v>
       </c>
     </row>
     <row r="62" spans="16:29" x14ac:dyDescent="0.25">
@@ -10804,19 +10903,19 @@
       </c>
       <c r="Z62" s="5">
         <f t="shared" si="8"/>
-        <v>780.38819999999998</v>
+        <v>785.27239999999995</v>
       </c>
       <c r="AA62" s="5">
         <f t="shared" si="9"/>
-        <v>1596.5148075684137</v>
+        <v>1520.3549102920967</v>
       </c>
       <c r="AB62" s="2">
         <f t="shared" si="10"/>
-        <v>0.56797136883604327</v>
+        <v>0.56909694010553258</v>
       </c>
       <c r="AC62" s="2">
         <f t="shared" si="11"/>
-        <v>0.79202826093363399</v>
+        <v>0.79534513076738556</v>
       </c>
     </row>
     <row r="63" spans="16:29" x14ac:dyDescent="0.25">
@@ -10852,19 +10951,19 @@
       </c>
       <c r="Z63" s="5">
         <f t="shared" si="8"/>
-        <v>2685.9929999999999</v>
+        <v>2695.8530000000001</v>
       </c>
       <c r="AA63" s="5">
         <f t="shared" si="9"/>
-        <v>4259.3504226530313</v>
+        <v>4254.3275699287387</v>
       </c>
       <c r="AB63" s="2">
         <f t="shared" si="10"/>
-        <v>0.49378739991606957</v>
+        <v>0.49394178628963381</v>
       </c>
       <c r="AC63" s="2">
         <f t="shared" si="11"/>
-        <v>0.60101749119805081</v>
+        <v>0.6014157908237121</v>
       </c>
     </row>
     <row r="64" spans="16:29" x14ac:dyDescent="0.25">
@@ -10900,19 +10999,19 @@
       </c>
       <c r="Z64" s="5">
         <f t="shared" si="8"/>
-        <v>6908.1009999999997</v>
+        <v>6805.9769999999999</v>
       </c>
       <c r="AA64" s="5">
         <f t="shared" si="9"/>
-        <v>1246.2478946389638</v>
+        <v>1318.840251512305</v>
       </c>
       <c r="AB64" s="2">
         <f t="shared" si="10"/>
-        <v>0.55644816668106922</v>
+        <v>0.55584494991903499</v>
       </c>
       <c r="AC64" s="2">
         <f t="shared" si="11"/>
-        <v>0.78043348679776803</v>
+        <v>0.77829969618215133</v>
       </c>
     </row>
     <row r="65" spans="16:29" x14ac:dyDescent="0.25">
@@ -10948,20 +11047,4975 @@
       </c>
       <c r="Z65" s="5">
         <f t="shared" si="8"/>
-        <v>6908.2070000000003</v>
+        <v>6806.0990000000002</v>
       </c>
       <c r="AA65" s="5">
         <f t="shared" si="9"/>
-        <v>1246.250593980039</v>
+        <v>1318.861164957616</v>
       </c>
       <c r="AB65" s="2">
         <f t="shared" si="10"/>
-        <v>0.55644785582232714</v>
+        <v>0.55584437063482528</v>
       </c>
       <c r="AC65" s="2">
         <f t="shared" si="11"/>
-        <v>0.78043295563661319</v>
-      </c>
+        <v>0.77829843751816896</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="B1:L2"/>
+    <mergeCell ref="Q1:V2"/>
+    <mergeCell ref="AD1:AK2"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q36:R36"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L6:M7 L13:M13">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:M19">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23:M24">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:M28">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6:Z17">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6:Z17 U22:U33 AB54:AC65 W38:W50">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:M14">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E1D526-36BE-496F-BEF2-8ECDAC7E47B0}">
+  <dimension ref="A1:AT70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="9"/>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10">
+        <v>125000000</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="J6" s="10">
+        <v>434000000</v>
+      </c>
+      <c r="K6" s="10">
+        <v>510000000</v>
+      </c>
+      <c r="L6" s="3">
+        <f>(J6/PRODUCT(D6:H6))-1</f>
+        <v>1.1738041572752311</v>
+      </c>
+      <c r="M6" s="3">
+        <f>(K6/(E6*F6*G6*I6*D6))-1</f>
+        <v>1.2479338842975203</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R6" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S6" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T6" s="9">
+        <v>1</v>
+      </c>
+      <c r="U6" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V6" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="W6" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="X6" s="5">
+        <f>AE6</f>
+        <v>785.26990000000001</v>
+      </c>
+      <c r="Y6" s="10">
+        <f>((Q6*U6)/(R6+S6*X6*T6))-1</f>
+        <v>0.580315171985891</v>
+      </c>
+      <c r="Z6" s="10">
+        <f>((Q6*W6)/(R6+S6*X6*V6))-1</f>
+        <v>0.82884646683888619</v>
+      </c>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="10">
+        <v>785.26990000000001</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>773.84789999999998</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>1308.703</v>
+      </c>
+      <c r="AH6" s="10">
+        <v>6.3805449999999996E-3</v>
+      </c>
+      <c r="AI6" s="10">
+        <v>63.478259999999999</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>59.65475</v>
+      </c>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R7" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S7" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T7" s="9">
+        <v>1</v>
+      </c>
+      <c r="U7" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V7" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="W7" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="X7" s="5">
+        <f t="shared" ref="X7:X17" si="0">AE7</f>
+        <v>6805.8729999999996</v>
+      </c>
+      <c r="Y7" s="10">
+        <f t="shared" ref="Y7:Y17" si="1">((Q7*U7)/(R7+S7*X7*T7))-1</f>
+        <v>0.56405168324282617</v>
+      </c>
+      <c r="Z7" s="10">
+        <f t="shared" ref="Z7:Z17" si="2">((Q7*W7)/(R7+S7*X7*V7))-1</f>
+        <v>0.80261883898620856</v>
+      </c>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>6805.8729999999996</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>1020.66</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>835.40620000000001</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>5.7016259999999996E-3</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>209.20070000000001</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>5.7935600000000003</v>
+      </c>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R8" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S8" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T8" s="9">
+        <v>1</v>
+      </c>
+      <c r="U8" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V8" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="W8" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="X8" s="5">
+        <f t="shared" si="0"/>
+        <v>6805.7470000000003</v>
+      </c>
+      <c r="Y8" s="10">
+        <f t="shared" si="1"/>
+        <v>0.56405202010461042</v>
+      </c>
+      <c r="Z8" s="10">
+        <f t="shared" si="2"/>
+        <v>0.80261938000998079</v>
+      </c>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="10">
+        <v>6805.7470000000003</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>1020.668</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>835.38530000000003</v>
+      </c>
+      <c r="AH8" s="10">
+        <v>5.7079499999999998E-3</v>
+      </c>
+      <c r="AI8" s="10">
+        <v>209.1987</v>
+      </c>
+      <c r="AJ8" s="10">
+        <v>5.791836</v>
+      </c>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R9" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S9" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T9" s="9">
+        <v>1</v>
+      </c>
+      <c r="U9" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V9" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="W9" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="X9" s="5">
+        <f t="shared" si="0"/>
+        <v>785.30759999999998</v>
+      </c>
+      <c r="Y9" s="10">
+        <f t="shared" si="1"/>
+        <v>0.58031506908772212</v>
+      </c>
+      <c r="Z9" s="10">
+        <f t="shared" si="2"/>
+        <v>0.82884630021637817</v>
+      </c>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="10">
+        <v>785.30759999999998</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>773.87639999999999</v>
+      </c>
+      <c r="AG9" s="10">
+        <v>1308.675</v>
+      </c>
+      <c r="AH9" s="10">
+        <v>6.3805809999999998E-3</v>
+      </c>
+      <c r="AI9" s="10">
+        <v>63.47869</v>
+      </c>
+      <c r="AJ9" s="10">
+        <v>59.65551</v>
+      </c>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R10" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S10" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T10" s="9">
+        <v>1</v>
+      </c>
+      <c r="U10" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V10" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="W10" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="X10" s="5">
+        <f t="shared" si="0"/>
+        <v>2695.8029999999999</v>
+      </c>
+      <c r="Y10" s="10">
+        <f t="shared" si="1"/>
+        <v>0.57511772342207301</v>
+      </c>
+      <c r="Z10" s="10">
+        <f t="shared" si="2"/>
+        <v>0.82044129967442037</v>
+      </c>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="10">
+        <v>2695.8029999999999</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>721.10490000000004</v>
+      </c>
+      <c r="AG10" s="10">
+        <v>4192.8029999999999</v>
+      </c>
+      <c r="AH10" s="10">
+        <v>2.0736310000000001E-2</v>
+      </c>
+      <c r="AI10" s="10">
+        <v>30.430019999999999</v>
+      </c>
+      <c r="AJ10" s="10">
+        <v>94.224620000000002</v>
+      </c>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R11" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S11" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T11" s="9">
+        <v>1</v>
+      </c>
+      <c r="U11" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V11" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="W11" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="X11" s="5">
+        <f t="shared" si="0"/>
+        <v>2695.8420000000001</v>
+      </c>
+      <c r="Y11" s="10">
+        <f t="shared" si="1"/>
+        <v>0.57511761767471636</v>
+      </c>
+      <c r="Z11" s="10">
+        <f t="shared" si="2"/>
+        <v>0.82044112888703613</v>
+      </c>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="9">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="10">
+        <v>2695.8420000000001</v>
+      </c>
+      <c r="AF11" s="10">
+        <v>721.07860000000005</v>
+      </c>
+      <c r="AG11" s="10">
+        <v>4192.83</v>
+      </c>
+      <c r="AH11" s="10">
+        <v>2.0731240000000001E-2</v>
+      </c>
+      <c r="AI11" s="10">
+        <v>30.430610000000001</v>
+      </c>
+      <c r="AJ11" s="10">
+        <v>94.225499999999997</v>
+      </c>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R12" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S12" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T12" s="9">
+        <v>1</v>
+      </c>
+      <c r="U12" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V12" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="W12" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="X12" s="5">
+        <f t="shared" si="0"/>
+        <v>2695.8820000000001</v>
+      </c>
+      <c r="Y12" s="10">
+        <f t="shared" si="1"/>
+        <v>0.57511750921590399</v>
+      </c>
+      <c r="Z12" s="10">
+        <f t="shared" si="2"/>
+        <v>0.8204409537205215</v>
+      </c>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>7</v>
+      </c>
+      <c r="AE12" s="10">
+        <v>2695.8820000000001</v>
+      </c>
+      <c r="AF12" s="10">
+        <v>721.10270000000003</v>
+      </c>
+      <c r="AG12" s="10">
+        <v>4192.7790000000005</v>
+      </c>
+      <c r="AH12" s="10">
+        <v>2.0731309999999999E-2</v>
+      </c>
+      <c r="AI12" s="10">
+        <v>30.43102</v>
+      </c>
+      <c r="AJ12" s="10">
+        <v>94.227289999999996</v>
+      </c>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="10">
+        <v>259000000</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="J13" s="10">
+        <v>434000000</v>
+      </c>
+      <c r="K13" s="10">
+        <v>510000000</v>
+      </c>
+      <c r="L13" s="3">
+        <f>(J13/PRODUCT(D13:H13))-1</f>
+        <v>4.9133280538238955E-2</v>
+      </c>
+      <c r="M13" s="3">
+        <f>(K13/(D13*E13*F13*G13*I13))-1</f>
+        <v>8.491017581926652E-2</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R13" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S13" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T13" s="9">
+        <v>1</v>
+      </c>
+      <c r="U13" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V13" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="W13" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="X13" s="5">
+        <f t="shared" si="0"/>
+        <v>785.3107</v>
+      </c>
+      <c r="Y13" s="10">
+        <f t="shared" si="1"/>
+        <v>0.58031506062659988</v>
+      </c>
+      <c r="Z13" s="10">
+        <f t="shared" si="2"/>
+        <v>0.82884628651532433</v>
+      </c>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="9">
+        <v>8</v>
+      </c>
+      <c r="AE13" s="10">
+        <v>785.3107</v>
+      </c>
+      <c r="AF13" s="10">
+        <v>773.84320000000002</v>
+      </c>
+      <c r="AG13" s="10">
+        <v>1308.662</v>
+      </c>
+      <c r="AH13" s="10">
+        <v>6.3799379999999999E-3</v>
+      </c>
+      <c r="AI13" s="10">
+        <v>63.48028</v>
+      </c>
+      <c r="AJ13" s="10">
+        <v>59.656480000000002</v>
+      </c>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R14" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S14" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T14" s="9">
+        <v>1</v>
+      </c>
+      <c r="U14" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V14" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="W14" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="X14" s="5">
+        <f t="shared" si="0"/>
+        <v>785.27239999999995</v>
+      </c>
+      <c r="Y14" s="10">
+        <f t="shared" si="1"/>
+        <v>0.58031516516240456</v>
+      </c>
+      <c r="Z14" s="10">
+        <f t="shared" si="2"/>
+        <v>0.82884645578964733</v>
+      </c>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>9</v>
+      </c>
+      <c r="AE14" s="10">
+        <v>785.27239999999995</v>
+      </c>
+      <c r="AF14" s="10">
+        <v>773.81769999999995</v>
+      </c>
+      <c r="AG14" s="10">
+        <v>1308.6959999999999</v>
+      </c>
+      <c r="AH14" s="10">
+        <v>6.3800890000000002E-3</v>
+      </c>
+      <c r="AI14" s="10">
+        <v>63.479810000000001</v>
+      </c>
+      <c r="AJ14" s="10">
+        <v>59.655749999999998</v>
+      </c>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R15" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S15" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T15" s="9">
+        <v>1</v>
+      </c>
+      <c r="U15" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V15" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="W15" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="X15" s="5">
+        <f t="shared" si="0"/>
+        <v>2695.8530000000001</v>
+      </c>
+      <c r="Y15" s="10">
+        <f t="shared" si="1"/>
+        <v>0.5751175878485415</v>
+      </c>
+      <c r="Z15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.82044108071624122</v>
+      </c>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="9">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="10">
+        <v>2695.8530000000001</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>721.12739999999997</v>
+      </c>
+      <c r="AG15" s="10">
+        <v>4192.7650000000003</v>
+      </c>
+      <c r="AH15" s="10">
+        <v>2.0735759999999999E-2</v>
+      </c>
+      <c r="AI15" s="10">
+        <v>30.430420000000002</v>
+      </c>
+      <c r="AJ15" s="10">
+        <v>94.226659999999995</v>
+      </c>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R16" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S16" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T16" s="9">
+        <v>1</v>
+      </c>
+      <c r="U16" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V16" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="W16" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="X16" s="5">
+        <f t="shared" si="0"/>
+        <v>6805.9769999999999</v>
+      </c>
+      <c r="Y16" s="10">
+        <f t="shared" si="1"/>
+        <v>0.56405140519828811</v>
+      </c>
+      <c r="Z16" s="10">
+        <f t="shared" si="2"/>
+        <v>0.80261839242714905</v>
+      </c>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>11</v>
+      </c>
+      <c r="AE16" s="10">
+        <v>6805.9769999999999</v>
+      </c>
+      <c r="AF16" s="10">
+        <v>1020.513</v>
+      </c>
+      <c r="AG16" s="10">
+        <v>835.39980000000003</v>
+      </c>
+      <c r="AH16" s="10">
+        <v>5.7069829999999997E-3</v>
+      </c>
+      <c r="AI16" s="10">
+        <v>209.20519999999999</v>
+      </c>
+      <c r="AJ16" s="10">
+        <v>5.7904260000000001</v>
+      </c>
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9"/>
+      <c r="AM16" s="9"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="10">
+        <v>12700000</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="J17" s="10">
+        <v>434000000</v>
+      </c>
+      <c r="K17" s="10">
+        <v>510000000</v>
+      </c>
+      <c r="L17" s="3">
+        <f>(J17/PRODUCT(D17:H17))-1</f>
+        <v>20.39571020940188</v>
+      </c>
+      <c r="M17" s="3">
+        <f>(K17/(PRODUCT(D17:G17)*I17))-1</f>
+        <v>21.125333506865356</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R17" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S17" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T17" s="9">
+        <v>1</v>
+      </c>
+      <c r="U17" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V17" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="W17" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="X17" s="5">
+        <f t="shared" si="0"/>
+        <v>6806.0990000000002</v>
+      </c>
+      <c r="Y17" s="10">
+        <f t="shared" si="1"/>
+        <v>0.56405107903078311</v>
+      </c>
+      <c r="Z17" s="10">
+        <f t="shared" si="2"/>
+        <v>0.80261786857930351</v>
+      </c>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="9">
+        <v>12</v>
+      </c>
+      <c r="AE17" s="10">
+        <v>6806.0990000000002</v>
+      </c>
+      <c r="AF17" s="10">
+        <v>1020.523</v>
+      </c>
+      <c r="AG17" s="10">
+        <v>835.42060000000004</v>
+      </c>
+      <c r="AH17" s="10">
+        <v>5.7010309999999996E-3</v>
+      </c>
+      <c r="AI17" s="10">
+        <v>209.2071</v>
+      </c>
+      <c r="AJ17" s="10">
+        <v>5.7922000000000002</v>
+      </c>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9"/>
+      <c r="AM19" s="9"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="9"/>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="9"/>
+      <c r="AT19" s="9"/>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="7"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9"/>
+      <c r="AM20" s="9"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="9"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9"/>
+      <c r="AM21" s="9"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="9"/>
+      <c r="AQ21" s="9"/>
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="9"/>
+      <c r="AT21" s="9"/>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R22" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S22" s="9">
+        <v>1</v>
+      </c>
+      <c r="T22" s="5">
+        <f>ABS(AE6)</f>
+        <v>785.26990000000001</v>
+      </c>
+      <c r="U22" s="4">
+        <f>(Q22/((1-R22)*T22*S22))-1</f>
+        <v>16.528303408100914</v>
+      </c>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9"/>
+      <c r="AM22" s="9"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R23" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S23" s="9">
+        <v>1</v>
+      </c>
+      <c r="T23" s="5">
+        <f t="shared" ref="T23:T33" si="3">ABS(AE7)</f>
+        <v>6805.8729999999996</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" ref="U23:U33" si="4">(Q23/((1-R23)*T23*S23))-1</f>
+        <v>1.0224369547373371</v>
+      </c>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R24" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S24" s="9">
+        <v>1</v>
+      </c>
+      <c r="T24" s="5">
+        <f t="shared" si="3"/>
+        <v>6805.7470000000003</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0224743976596637</v>
+      </c>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9"/>
+      <c r="AM24" s="9"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="9"/>
+      <c r="AQ24" s="9"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="9"/>
+      <c r="AT24" s="9"/>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R25" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S25" s="9">
+        <v>1</v>
+      </c>
+      <c r="T25" s="5">
+        <f t="shared" si="3"/>
+        <v>785.30759999999998</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="4"/>
+        <v>16.527461932686077</v>
+      </c>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="9"/>
+      <c r="AM25" s="9"/>
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="9"/>
+      <c r="AP25" s="9"/>
+      <c r="AQ25" s="9"/>
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="9"/>
+      <c r="AT25" s="9"/>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R26" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S26" s="9">
+        <v>1</v>
+      </c>
+      <c r="T26" s="5">
+        <f t="shared" si="3"/>
+        <v>2695.8029999999999</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="4"/>
+        <v>4.1058809061526622</v>
+      </c>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9"/>
+      <c r="AM26" s="9"/>
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="9"/>
+      <c r="AQ26" s="9"/>
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="9"/>
+      <c r="AT26" s="9"/>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R27" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S27" s="9">
+        <v>1</v>
+      </c>
+      <c r="T27" s="5">
+        <f t="shared" si="3"/>
+        <v>2695.8420000000001</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="4"/>
+        <v>4.1058070407869094</v>
+      </c>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="9"/>
+      <c r="AM27" s="9"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="9"/>
+      <c r="AP27" s="9"/>
+      <c r="AQ27" s="9"/>
+      <c r="AR27" s="9"/>
+      <c r="AS27" s="9"/>
+      <c r="AT27" s="9"/>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R28" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S28" s="9">
+        <v>1</v>
+      </c>
+      <c r="T28" s="5">
+        <f t="shared" si="3"/>
+        <v>2695.8820000000001</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="4"/>
+        <v>4.1057312836574695</v>
+      </c>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="9"/>
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="9"/>
+      <c r="AM28" s="9"/>
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="9"/>
+      <c r="AP28" s="9"/>
+      <c r="AQ28" s="9"/>
+      <c r="AR28" s="9"/>
+      <c r="AS28" s="9"/>
+      <c r="AT28" s="9"/>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R29" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S29" s="9">
+        <v>1</v>
+      </c>
+      <c r="T29" s="5">
+        <f t="shared" si="3"/>
+        <v>785.3107</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="4"/>
+        <v>16.527392743342304</v>
+      </c>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="9"/>
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="9"/>
+      <c r="AM29" s="9"/>
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="9"/>
+      <c r="AP29" s="9"/>
+      <c r="AQ29" s="9"/>
+      <c r="AR29" s="9"/>
+      <c r="AS29" s="9"/>
+      <c r="AT29" s="9"/>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R30" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S30" s="9">
+        <v>1</v>
+      </c>
+      <c r="T30" s="5">
+        <f t="shared" si="3"/>
+        <v>785.27239999999995</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="4"/>
+        <v>16.528247604842683</v>
+      </c>
+      <c r="V30" s="9"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
+      <c r="AJ30" s="9"/>
+      <c r="AK30" s="9"/>
+      <c r="AL30" s="9"/>
+      <c r="AM30" s="9"/>
+      <c r="AN30" s="9"/>
+      <c r="AO30" s="9"/>
+      <c r="AP30" s="9"/>
+      <c r="AQ30" s="9"/>
+      <c r="AR30" s="9"/>
+      <c r="AS30" s="9"/>
+      <c r="AT30" s="9"/>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R31" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S31" s="9">
+        <v>1</v>
+      </c>
+      <c r="T31" s="5">
+        <f t="shared" si="3"/>
+        <v>2695.8530000000001</v>
+      </c>
+      <c r="U31" s="4">
+        <f t="shared" si="4"/>
+        <v>4.1057862073522049</v>
+      </c>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="9"/>
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="9"/>
+      <c r="AM31" s="9"/>
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="9"/>
+      <c r="AP31" s="9"/>
+      <c r="AQ31" s="9"/>
+      <c r="AR31" s="9"/>
+      <c r="AS31" s="9"/>
+      <c r="AT31" s="9"/>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R32" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S32" s="9">
+        <v>1</v>
+      </c>
+      <c r="T32" s="5">
+        <f t="shared" si="3"/>
+        <v>6805.9769999999999</v>
+      </c>
+      <c r="U32" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0224060505125223</v>
+      </c>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="9"/>
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="9"/>
+      <c r="AM32" s="9"/>
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="9"/>
+      <c r="AP32" s="9"/>
+      <c r="AQ32" s="9"/>
+      <c r="AR32" s="9"/>
+      <c r="AS32" s="9"/>
+      <c r="AT32" s="9"/>
+    </row>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R33" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S33" s="9">
+        <v>1</v>
+      </c>
+      <c r="T33" s="5">
+        <f t="shared" si="3"/>
+        <v>6806.0990000000002</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0223697986833669</v>
+      </c>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="9"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="9"/>
+      <c r="AP33" s="9"/>
+      <c r="AQ33" s="9"/>
+      <c r="AR33" s="9"/>
+      <c r="AS33" s="9"/>
+      <c r="AT33" s="9"/>
+    </row>
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="9"/>
+      <c r="AK34" s="9"/>
+      <c r="AL34" s="9"/>
+      <c r="AM34" s="9"/>
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="9"/>
+      <c r="AP34" s="9"/>
+      <c r="AQ34" s="9"/>
+      <c r="AR34" s="9"/>
+      <c r="AS34" s="9"/>
+      <c r="AT34" s="9"/>
+    </row>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="9"/>
+      <c r="AK35" s="9"/>
+      <c r="AL35" s="9"/>
+      <c r="AM35" s="9"/>
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="9"/>
+      <c r="AP35" s="9"/>
+      <c r="AQ35" s="9"/>
+      <c r="AR35" s="9"/>
+      <c r="AS35" s="9"/>
+      <c r="AT35" s="9"/>
+    </row>
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R36" s="7"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="9"/>
+      <c r="AJ36" s="9"/>
+      <c r="AK36" s="9"/>
+      <c r="AL36" s="9"/>
+      <c r="AM36" s="9"/>
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="9"/>
+      <c r="AP36" s="9"/>
+      <c r="AQ36" s="9"/>
+      <c r="AR36" s="9"/>
+      <c r="AS36" s="9"/>
+      <c r="AT36" s="9"/>
+    </row>
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="V37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W37" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="9"/>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="9"/>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="9"/>
+      <c r="AK37" s="9"/>
+      <c r="AL37" s="9"/>
+      <c r="AM37" s="9"/>
+      <c r="AN37" s="9"/>
+      <c r="AO37" s="9"/>
+      <c r="AP37" s="9"/>
+      <c r="AQ37" s="9"/>
+      <c r="AR37" s="9"/>
+      <c r="AS37" s="9"/>
+      <c r="AT37" s="9"/>
+    </row>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R38" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S38" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="T38" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="U38" s="5">
+        <f>ABS(AE6)</f>
+        <v>785.26990000000001</v>
+      </c>
+      <c r="V38" s="5">
+        <f>SQRT(AF6^2 + AG6^2)</f>
+        <v>1520.3763068870187</v>
+      </c>
+      <c r="W38" s="4">
+        <f>(((Q38-(1-R38)*U38)*S38)/(T38*V38))-1</f>
+        <v>0.17320300428640145</v>
+      </c>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="9"/>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="9"/>
+      <c r="AK38" s="9"/>
+      <c r="AL38" s="9"/>
+      <c r="AM38" s="9"/>
+      <c r="AN38" s="9"/>
+      <c r="AO38" s="9"/>
+      <c r="AP38" s="9"/>
+      <c r="AQ38" s="9"/>
+      <c r="AR38" s="9"/>
+      <c r="AS38" s="9"/>
+      <c r="AT38" s="9"/>
+    </row>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R39" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S39" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="T39" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="U39" s="5">
+        <f t="shared" ref="U39:U49" si="5">ABS(AE7)</f>
+        <v>6805.8729999999996</v>
+      </c>
+      <c r="V39" s="5">
+        <f t="shared" ref="V39:V49" si="6">SQRT(AF7^2 + AG7^2)</f>
+        <v>1318.9580564212192</v>
+      </c>
+      <c r="W39" s="4">
+        <f t="shared" ref="W39:W49" si="7">(((Q39-(1-R39)*U39)*S39)/(T39*V39))-1</f>
+        <v>-0.27495255587651379</v>
+      </c>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="9"/>
+      <c r="AK39" s="9"/>
+      <c r="AL39" s="9"/>
+      <c r="AM39" s="9"/>
+      <c r="AN39" s="9"/>
+      <c r="AO39" s="9"/>
+      <c r="AP39" s="9"/>
+      <c r="AQ39" s="9"/>
+      <c r="AR39" s="9"/>
+      <c r="AS39" s="9"/>
+      <c r="AT39" s="9"/>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R40" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S40" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="T40" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="U40" s="5">
+        <f t="shared" si="5"/>
+        <v>6805.7470000000003</v>
+      </c>
+      <c r="V40" s="5">
+        <f t="shared" si="6"/>
+        <v>1318.9510095830285</v>
+      </c>
+      <c r="W40" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.27493555350731558</v>
+      </c>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="9"/>
+      <c r="AJ40" s="9"/>
+      <c r="AK40" s="9"/>
+      <c r="AL40" s="9"/>
+      <c r="AM40" s="9"/>
+      <c r="AN40" s="9"/>
+      <c r="AO40" s="9"/>
+      <c r="AP40" s="9"/>
+      <c r="AQ40" s="9"/>
+      <c r="AR40" s="9"/>
+      <c r="AS40" s="9"/>
+      <c r="AT40" s="9"/>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R41" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S41" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="T41" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="U41" s="5">
+        <f>ABS(AE9)</f>
+        <v>785.30759999999998</v>
+      </c>
+      <c r="V41" s="5">
+        <f t="shared" si="6"/>
+        <v>1520.3667117185773</v>
+      </c>
+      <c r="W41" s="4">
+        <f t="shared" si="7"/>
+        <v>0.17320700070598405</v>
+      </c>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="9"/>
+      <c r="AD41" s="9"/>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="9"/>
+      <c r="AG41" s="9"/>
+      <c r="AH41" s="9"/>
+      <c r="AI41" s="9"/>
+      <c r="AJ41" s="9"/>
+      <c r="AK41" s="9"/>
+      <c r="AL41" s="9"/>
+      <c r="AM41" s="9"/>
+      <c r="AN41" s="9"/>
+      <c r="AO41" s="9"/>
+      <c r="AP41" s="9"/>
+      <c r="AQ41" s="9"/>
+      <c r="AR41" s="9"/>
+      <c r="AS41" s="9"/>
+      <c r="AT41" s="9"/>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R42" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S42" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="T42" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="U42" s="5">
+        <f t="shared" si="5"/>
+        <v>2695.8029999999999</v>
+      </c>
+      <c r="V42" s="5">
+        <f t="shared" si="6"/>
+        <v>4254.3612062932561</v>
+      </c>
+      <c r="W42" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.64244967868841074</v>
+      </c>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="9"/>
+      <c r="AC42" s="9"/>
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="9"/>
+      <c r="AF42" s="9"/>
+      <c r="AG42" s="9"/>
+      <c r="AH42" s="9"/>
+      <c r="AI42" s="9"/>
+      <c r="AJ42" s="9"/>
+      <c r="AK42" s="9"/>
+      <c r="AL42" s="9"/>
+      <c r="AM42" s="9"/>
+      <c r="AN42" s="9"/>
+      <c r="AO42" s="9"/>
+      <c r="AP42" s="9"/>
+      <c r="AQ42" s="9"/>
+      <c r="AR42" s="9"/>
+      <c r="AS42" s="9"/>
+      <c r="AT42" s="9"/>
+    </row>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q43" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R43" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S43" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="T43" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="U43" s="5">
+        <f t="shared" si="5"/>
+        <v>2695.8420000000001</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" si="6"/>
+        <v>4254.3833579354314</v>
+      </c>
+      <c r="W43" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.64245280018451156</v>
+      </c>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="9"/>
+      <c r="AG43" s="9"/>
+      <c r="AH43" s="9"/>
+      <c r="AI43" s="9"/>
+      <c r="AJ43" s="9"/>
+      <c r="AK43" s="9"/>
+      <c r="AL43" s="9"/>
+      <c r="AM43" s="9"/>
+      <c r="AN43" s="9"/>
+      <c r="AO43" s="9"/>
+      <c r="AP43" s="9"/>
+      <c r="AQ43" s="9"/>
+      <c r="AR43" s="9"/>
+      <c r="AS43" s="9"/>
+      <c r="AT43" s="9"/>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R44" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S44" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="T44" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="U44" s="5">
+        <f t="shared" si="5"/>
+        <v>2695.8820000000001</v>
+      </c>
+      <c r="V44" s="5">
+        <f t="shared" si="6"/>
+        <v>4254.337180664962</v>
+      </c>
+      <c r="W44" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.64245021143556502</v>
+      </c>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
+      <c r="AD44" s="9"/>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="9"/>
+      <c r="AG44" s="9"/>
+      <c r="AH44" s="9"/>
+      <c r="AI44" s="9"/>
+      <c r="AJ44" s="9"/>
+      <c r="AK44" s="9"/>
+      <c r="AL44" s="9"/>
+      <c r="AM44" s="9"/>
+      <c r="AN44" s="9"/>
+      <c r="AO44" s="9"/>
+      <c r="AP44" s="9"/>
+      <c r="AQ44" s="9"/>
+      <c r="AR44" s="9"/>
+      <c r="AS44" s="9"/>
+      <c r="AT44" s="9"/>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R45" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S45" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="T45" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="U45" s="5">
+        <f t="shared" si="5"/>
+        <v>785.3107</v>
+      </c>
+      <c r="V45" s="5">
+        <f t="shared" si="6"/>
+        <v>1520.3386229489272</v>
+      </c>
+      <c r="W45" s="4">
+        <f t="shared" si="7"/>
+        <v>0.17322839588211947</v>
+      </c>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="9"/>
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="9"/>
+      <c r="AG45" s="9"/>
+      <c r="AH45" s="9"/>
+      <c r="AI45" s="9"/>
+      <c r="AJ45" s="9"/>
+      <c r="AK45" s="9"/>
+      <c r="AL45" s="9"/>
+      <c r="AM45" s="9"/>
+      <c r="AN45" s="9"/>
+      <c r="AO45" s="9"/>
+      <c r="AP45" s="9"/>
+      <c r="AQ45" s="9"/>
+      <c r="AR45" s="9"/>
+      <c r="AS45" s="9"/>
+      <c r="AT45" s="9"/>
+    </row>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q46" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R46" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S46" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="T46" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="U46" s="5">
+        <f t="shared" si="5"/>
+        <v>785.27239999999995</v>
+      </c>
+      <c r="V46" s="5">
+        <f t="shared" si="6"/>
+        <v>1520.3549102920967</v>
+      </c>
+      <c r="W46" s="4">
+        <f t="shared" si="7"/>
+        <v>0.17321928928528441</v>
+      </c>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="9"/>
+      <c r="AG46" s="9"/>
+      <c r="AH46" s="9"/>
+      <c r="AI46" s="9"/>
+      <c r="AJ46" s="9"/>
+      <c r="AK46" s="9"/>
+      <c r="AL46" s="9"/>
+      <c r="AM46" s="9"/>
+      <c r="AN46" s="9"/>
+      <c r="AO46" s="9"/>
+      <c r="AP46" s="9"/>
+      <c r="AQ46" s="9"/>
+      <c r="AR46" s="9"/>
+      <c r="AS46" s="9"/>
+      <c r="AT46" s="9"/>
+    </row>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R47" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S47" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="T47" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="U47" s="5">
+        <f t="shared" si="5"/>
+        <v>2695.8530000000001</v>
+      </c>
+      <c r="V47" s="5">
+        <f t="shared" si="6"/>
+        <v>4254.3275699287387</v>
+      </c>
+      <c r="W47" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.64244846691891599</v>
+      </c>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="9"/>
+      <c r="AG47" s="9"/>
+      <c r="AH47" s="9"/>
+      <c r="AI47" s="9"/>
+      <c r="AJ47" s="9"/>
+      <c r="AK47" s="9"/>
+      <c r="AL47" s="9"/>
+      <c r="AM47" s="9"/>
+      <c r="AN47" s="9"/>
+      <c r="AO47" s="9"/>
+      <c r="AP47" s="9"/>
+      <c r="AQ47" s="9"/>
+      <c r="AR47" s="9"/>
+      <c r="AS47" s="9"/>
+      <c r="AT47" s="9"/>
+    </row>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q48" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R48" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S48" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="T48" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="U48" s="5">
+        <f t="shared" si="5"/>
+        <v>6805.9769999999999</v>
+      </c>
+      <c r="V48" s="5">
+        <f t="shared" si="6"/>
+        <v>1318.840251512305</v>
+      </c>
+      <c r="W48" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.27489862851373936</v>
+      </c>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="9"/>
+      <c r="AC48" s="9"/>
+      <c r="AD48" s="9"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="9"/>
+      <c r="AH48" s="9"/>
+      <c r="AI48" s="9"/>
+      <c r="AJ48" s="9"/>
+      <c r="AK48" s="9"/>
+      <c r="AL48" s="9"/>
+      <c r="AM48" s="9"/>
+      <c r="AN48" s="9"/>
+      <c r="AO48" s="9"/>
+      <c r="AP48" s="9"/>
+      <c r="AQ48" s="9"/>
+      <c r="AR48" s="9"/>
+      <c r="AS48" s="9"/>
+      <c r="AT48" s="9"/>
+    </row>
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9">
+        <v>12</v>
+      </c>
+      <c r="Q49" s="9">
+        <v>13241.4</v>
+      </c>
+      <c r="R49" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="S49" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="T49" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="U49" s="5">
+        <f t="shared" si="5"/>
+        <v>6806.0990000000002</v>
+      </c>
+      <c r="V49" s="5">
+        <f t="shared" si="6"/>
+        <v>1318.861164957616</v>
+      </c>
+      <c r="W49" s="4">
+        <f t="shared" si="7"/>
+        <v>-0.27492283929076444</v>
+      </c>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
+      <c r="Z49" s="9"/>
+      <c r="AA49" s="9"/>
+      <c r="AB49" s="9"/>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="9"/>
+      <c r="AE49" s="9"/>
+      <c r="AF49" s="9"/>
+      <c r="AG49" s="9"/>
+      <c r="AH49" s="9"/>
+      <c r="AI49" s="9"/>
+      <c r="AJ49" s="9"/>
+      <c r="AK49" s="9"/>
+      <c r="AL49" s="9"/>
+      <c r="AM49" s="9"/>
+      <c r="AN49" s="9"/>
+      <c r="AO49" s="9"/>
+      <c r="AP49" s="9"/>
+      <c r="AQ49" s="9"/>
+      <c r="AR49" s="9"/>
+      <c r="AS49" s="9"/>
+      <c r="AT49" s="9"/>
+    </row>
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="9"/>
+      <c r="AB50" s="9"/>
+      <c r="AC50" s="9"/>
+      <c r="AD50" s="9"/>
+      <c r="AE50" s="9"/>
+      <c r="AF50" s="9"/>
+      <c r="AG50" s="9"/>
+      <c r="AH50" s="9"/>
+      <c r="AI50" s="9"/>
+      <c r="AJ50" s="9"/>
+      <c r="AK50" s="9"/>
+      <c r="AL50" s="9"/>
+      <c r="AM50" s="9"/>
+      <c r="AN50" s="9"/>
+      <c r="AO50" s="9"/>
+      <c r="AP50" s="9"/>
+      <c r="AQ50" s="9"/>
+      <c r="AR50" s="9"/>
+      <c r="AS50" s="9"/>
+      <c r="AT50" s="9"/>
+    </row>
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AE51" s="9"/>
+      <c r="AF51" s="9"/>
+      <c r="AG51" s="9"/>
+      <c r="AH51" s="9"/>
+      <c r="AI51" s="9"/>
+      <c r="AJ51" s="9"/>
+      <c r="AK51" s="9"/>
+      <c r="AL51" s="9"/>
+      <c r="AM51" s="9"/>
+      <c r="AN51" s="9"/>
+      <c r="AO51" s="9"/>
+      <c r="AP51" s="9"/>
+      <c r="AQ51" s="9"/>
+      <c r="AR51" s="9"/>
+      <c r="AS51" s="9"/>
+      <c r="AT51" s="9"/>
+    </row>
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R52" s="7"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
+      <c r="AE52" s="9"/>
+      <c r="AF52" s="9"/>
+      <c r="AG52" s="9"/>
+      <c r="AH52" s="9"/>
+      <c r="AI52" s="9"/>
+      <c r="AJ52" s="9"/>
+      <c r="AK52" s="9"/>
+      <c r="AL52" s="9"/>
+      <c r="AM52" s="9"/>
+      <c r="AN52" s="9"/>
+      <c r="AO52" s="9"/>
+      <c r="AP52" s="9"/>
+      <c r="AQ52" s="9"/>
+      <c r="AR52" s="9"/>
+      <c r="AS52" s="9"/>
+      <c r="AT52" s="9"/>
+    </row>
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T53" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X53" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z53" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA53" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB53" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC53" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="9"/>
+      <c r="AG53" s="9"/>
+      <c r="AH53" s="9"/>
+      <c r="AI53" s="9"/>
+      <c r="AJ53" s="9"/>
+      <c r="AK53" s="9"/>
+      <c r="AL53" s="9"/>
+      <c r="AM53" s="9"/>
+      <c r="AN53" s="9"/>
+      <c r="AO53" s="9"/>
+      <c r="AP53" s="9"/>
+      <c r="AQ53" s="9"/>
+      <c r="AR53" s="9"/>
+      <c r="AS53" s="9"/>
+      <c r="AT53" s="9"/>
+    </row>
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R54" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S54" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T54" s="9">
+        <v>1</v>
+      </c>
+      <c r="U54" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V54" s="10">
+        <v>548000000</v>
+      </c>
+      <c r="W54" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="X54" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="Y54" s="10">
+        <v>655000000</v>
+      </c>
+      <c r="Z54" s="5">
+        <f>ABS(AE6)</f>
+        <v>785.26990000000001</v>
+      </c>
+      <c r="AA54" s="5">
+        <f>SQRT(AF6^2 + AG6^2)</f>
+        <v>1520.3763068870187</v>
+      </c>
+      <c r="AB54" s="10">
+        <f>(1/(SQRT(((AA54*T54)/(V54*Q54))^2 + ( (R54+S54*Z54*T54)/(Q54*U54))^2)))-1</f>
+        <v>0.5690966343792736</v>
+      </c>
+      <c r="AC54" s="10">
+        <f>(1/(SQRT(((AA54*W54)/(V54*Q54))^2 + ( (R54+S54*Z54*W54)/(Q54*X54))^2)))-1</f>
+        <v>0.79534422400999816</v>
+      </c>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="9"/>
+      <c r="AG54" s="9"/>
+      <c r="AH54" s="9"/>
+      <c r="AI54" s="9"/>
+      <c r="AJ54" s="9"/>
+      <c r="AK54" s="9"/>
+      <c r="AL54" s="9"/>
+      <c r="AM54" s="9"/>
+      <c r="AN54" s="9"/>
+      <c r="AO54" s="9"/>
+      <c r="AP54" s="9"/>
+      <c r="AQ54" s="9"/>
+      <c r="AR54" s="9"/>
+      <c r="AS54" s="9"/>
+      <c r="AT54" s="9"/>
+    </row>
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R55" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S55" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T55" s="9">
+        <v>1</v>
+      </c>
+      <c r="U55" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V55" s="10">
+        <v>548000000</v>
+      </c>
+      <c r="W55" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="X55" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="Y55" s="10">
+        <v>655000000</v>
+      </c>
+      <c r="Z55" s="5">
+        <f t="shared" ref="Z55:Z65" si="8">ABS(AE7)</f>
+        <v>6805.8729999999996</v>
+      </c>
+      <c r="AA55" s="5">
+        <f t="shared" ref="AA55:AA65" si="9">SQRT(AF7^2 + AG7^2)</f>
+        <v>1318.9580564212192</v>
+      </c>
+      <c r="AB55" s="10">
+        <f t="shared" ref="AB55:AB65" si="10">(1/(SQRT(((AA55*T55)/(V55*Q55))^2 + ( (R55+S55*Z55*T55)/(Q55*U55))^2)))-1</f>
+        <v>0.55584376898752086</v>
+      </c>
+      <c r="AC55" s="10">
+        <f t="shared" ref="AC55:AC65" si="11">(1/(SQRT(((AA55*W55)/(V55*Q55))^2 + ( (R55+S55*Z55*W55)/(Q55*X55))^2)))-1</f>
+        <v>0.77829586773688675</v>
+      </c>
+      <c r="AD55" s="9"/>
+      <c r="AE55" s="9"/>
+      <c r="AF55" s="9"/>
+      <c r="AG55" s="9"/>
+      <c r="AH55" s="9"/>
+      <c r="AI55" s="9"/>
+      <c r="AJ55" s="9"/>
+      <c r="AK55" s="9"/>
+      <c r="AL55" s="9"/>
+      <c r="AM55" s="9"/>
+      <c r="AN55" s="9"/>
+      <c r="AO55" s="9"/>
+      <c r="AP55" s="9"/>
+      <c r="AQ55" s="9"/>
+      <c r="AR55" s="9"/>
+      <c r="AS55" s="9"/>
+      <c r="AT55" s="9"/>
+    </row>
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9">
+        <v>3</v>
+      </c>
+      <c r="Q56" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R56" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S56" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T56" s="9">
+        <v>1</v>
+      </c>
+      <c r="U56" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V56" s="10">
+        <v>548000000</v>
+      </c>
+      <c r="W56" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="X56" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="Y56" s="10">
+        <v>655000000</v>
+      </c>
+      <c r="Z56" s="5">
+        <f t="shared" si="8"/>
+        <v>6805.7470000000003</v>
+      </c>
+      <c r="AA56" s="5">
+        <f t="shared" si="9"/>
+        <v>1318.9510095830285</v>
+      </c>
+      <c r="AB56" s="10">
+        <f t="shared" si="10"/>
+        <v>0.5558441875896809</v>
+      </c>
+      <c r="AC56" s="10">
+        <f t="shared" si="11"/>
+        <v>0.77829664181961888</v>
+      </c>
+      <c r="AD56" s="9"/>
+      <c r="AE56" s="9"/>
+      <c r="AF56" s="9"/>
+      <c r="AG56" s="9"/>
+      <c r="AH56" s="9"/>
+      <c r="AI56" s="9"/>
+      <c r="AJ56" s="9"/>
+      <c r="AK56" s="9"/>
+      <c r="AL56" s="9"/>
+      <c r="AM56" s="9"/>
+      <c r="AN56" s="9"/>
+      <c r="AO56" s="9"/>
+      <c r="AP56" s="9"/>
+      <c r="AQ56" s="9"/>
+      <c r="AR56" s="9"/>
+      <c r="AS56" s="9"/>
+      <c r="AT56" s="9"/>
+    </row>
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R57" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S57" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T57" s="9">
+        <v>1</v>
+      </c>
+      <c r="U57" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V57" s="10">
+        <v>548000000</v>
+      </c>
+      <c r="W57" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="X57" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="Y57" s="10">
+        <v>655000000</v>
+      </c>
+      <c r="Z57" s="5">
+        <f t="shared" si="8"/>
+        <v>785.30759999999998</v>
+      </c>
+      <c r="AA57" s="5">
+        <f t="shared" si="9"/>
+        <v>1520.3667117185773</v>
+      </c>
+      <c r="AB57" s="10">
+        <f t="shared" si="10"/>
+        <v>0.56909667375374129</v>
+      </c>
+      <c r="AC57" s="10">
+        <f t="shared" si="11"/>
+        <v>0.79534447769631678</v>
+      </c>
+      <c r="AD57" s="9"/>
+      <c r="AE57" s="9"/>
+      <c r="AF57" s="9"/>
+      <c r="AG57" s="9"/>
+      <c r="AH57" s="9"/>
+      <c r="AI57" s="9"/>
+      <c r="AJ57" s="9"/>
+      <c r="AK57" s="9"/>
+      <c r="AL57" s="9"/>
+      <c r="AM57" s="9"/>
+      <c r="AN57" s="9"/>
+      <c r="AO57" s="9"/>
+      <c r="AP57" s="9"/>
+      <c r="AQ57" s="9"/>
+      <c r="AR57" s="9"/>
+      <c r="AS57" s="9"/>
+      <c r="AT57" s="9"/>
+    </row>
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R58" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S58" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T58" s="9">
+        <v>1</v>
+      </c>
+      <c r="U58" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V58" s="10">
+        <v>548000000</v>
+      </c>
+      <c r="W58" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="X58" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="Y58" s="10">
+        <v>655000000</v>
+      </c>
+      <c r="Z58" s="5">
+        <f t="shared" si="8"/>
+        <v>2695.8029999999999</v>
+      </c>
+      <c r="AA58" s="5">
+        <f t="shared" si="9"/>
+        <v>4254.3612062932561</v>
+      </c>
+      <c r="AB58" s="10">
+        <f t="shared" si="10"/>
+        <v>0.49394071587022181</v>
+      </c>
+      <c r="AC58" s="10">
+        <f t="shared" si="11"/>
+        <v>0.60141307645308872</v>
+      </c>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="9"/>
+      <c r="AF58" s="9"/>
+      <c r="AG58" s="9"/>
+      <c r="AH58" s="9"/>
+      <c r="AI58" s="9"/>
+      <c r="AJ58" s="9"/>
+      <c r="AK58" s="9"/>
+      <c r="AL58" s="9"/>
+      <c r="AM58" s="9"/>
+      <c r="AN58" s="9"/>
+      <c r="AO58" s="9"/>
+      <c r="AP58" s="9"/>
+      <c r="AQ58" s="9"/>
+      <c r="AR58" s="9"/>
+      <c r="AS58" s="9"/>
+      <c r="AT58" s="9"/>
+    </row>
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9">
+        <v>6</v>
+      </c>
+      <c r="Q59" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R59" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S59" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T59" s="9">
+        <v>1</v>
+      </c>
+      <c r="U59" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V59" s="10">
+        <v>548000000</v>
+      </c>
+      <c r="W59" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="X59" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="Y59" s="10">
+        <v>655000000</v>
+      </c>
+      <c r="Z59" s="5">
+        <f t="shared" si="8"/>
+        <v>2695.8420000000001</v>
+      </c>
+      <c r="AA59" s="5">
+        <f t="shared" si="9"/>
+        <v>4254.3833579354314</v>
+      </c>
+      <c r="AB59" s="10">
+        <f t="shared" si="10"/>
+        <v>0.49393984452437967</v>
+      </c>
+      <c r="AC59" s="10">
+        <f t="shared" si="11"/>
+        <v>0.60141107444449005</v>
+      </c>
+      <c r="AD59" s="9"/>
+      <c r="AE59" s="9"/>
+      <c r="AF59" s="9"/>
+      <c r="AG59" s="9"/>
+      <c r="AH59" s="9"/>
+      <c r="AI59" s="9"/>
+      <c r="AJ59" s="9"/>
+      <c r="AK59" s="9"/>
+      <c r="AL59" s="9"/>
+      <c r="AM59" s="9"/>
+      <c r="AN59" s="9"/>
+      <c r="AO59" s="9"/>
+      <c r="AP59" s="9"/>
+      <c r="AQ59" s="9"/>
+      <c r="AR59" s="9"/>
+      <c r="AS59" s="9"/>
+      <c r="AT59" s="9"/>
+    </row>
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9">
+        <v>7</v>
+      </c>
+      <c r="Q60" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R60" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S60" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T60" s="9">
+        <v>1</v>
+      </c>
+      <c r="U60" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V60" s="10">
+        <v>548000000</v>
+      </c>
+      <c r="W60" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="X60" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="Y60" s="10">
+        <v>655000000</v>
+      </c>
+      <c r="Z60" s="5">
+        <f t="shared" si="8"/>
+        <v>2695.8820000000001</v>
+      </c>
+      <c r="AA60" s="5">
+        <f t="shared" si="9"/>
+        <v>4254.337180664962</v>
+      </c>
+      <c r="AB60" s="10">
+        <f t="shared" si="10"/>
+        <v>0.49394138030318513</v>
+      </c>
+      <c r="AC60" s="10">
+        <f t="shared" si="11"/>
+        <v>0.60141488622271311</v>
+      </c>
+      <c r="AD60" s="9"/>
+      <c r="AE60" s="9"/>
+      <c r="AF60" s="9"/>
+      <c r="AG60" s="9"/>
+      <c r="AH60" s="9"/>
+      <c r="AI60" s="9"/>
+      <c r="AJ60" s="9"/>
+      <c r="AK60" s="9"/>
+      <c r="AL60" s="9"/>
+      <c r="AM60" s="9"/>
+      <c r="AN60" s="9"/>
+      <c r="AO60" s="9"/>
+      <c r="AP60" s="9"/>
+      <c r="AQ60" s="9"/>
+      <c r="AR60" s="9"/>
+      <c r="AS60" s="9"/>
+      <c r="AT60" s="9"/>
+    </row>
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9">
+        <v>8</v>
+      </c>
+      <c r="Q61" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R61" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S61" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T61" s="9">
+        <v>1</v>
+      </c>
+      <c r="U61" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V61" s="10">
+        <v>548000000</v>
+      </c>
+      <c r="W61" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="X61" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="Y61" s="10">
+        <v>655000000</v>
+      </c>
+      <c r="Z61" s="5">
+        <f t="shared" si="8"/>
+        <v>785.3107</v>
+      </c>
+      <c r="AA61" s="5">
+        <f t="shared" si="9"/>
+        <v>1520.3386229489272</v>
+      </c>
+      <c r="AB61" s="10">
+        <f t="shared" si="10"/>
+        <v>0.56909707558406497</v>
+      </c>
+      <c r="AC61" s="10">
+        <f t="shared" si="11"/>
+        <v>0.79534566880977997</v>
+      </c>
+      <c r="AD61" s="9"/>
+      <c r="AE61" s="9"/>
+      <c r="AF61" s="9"/>
+      <c r="AG61" s="9"/>
+      <c r="AH61" s="9"/>
+      <c r="AI61" s="9"/>
+      <c r="AJ61" s="9"/>
+      <c r="AK61" s="9"/>
+      <c r="AL61" s="9"/>
+      <c r="AM61" s="9"/>
+      <c r="AN61" s="9"/>
+      <c r="AO61" s="9"/>
+      <c r="AP61" s="9"/>
+      <c r="AQ61" s="9"/>
+      <c r="AR61" s="9"/>
+      <c r="AS61" s="9"/>
+      <c r="AT61" s="9"/>
+    </row>
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q62" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R62" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S62" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T62" s="9">
+        <v>1</v>
+      </c>
+      <c r="U62" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V62" s="10">
+        <v>548000000</v>
+      </c>
+      <c r="W62" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="X62" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="Y62" s="10">
+        <v>655000000</v>
+      </c>
+      <c r="Z62" s="5">
+        <f t="shared" si="8"/>
+        <v>785.27239999999995</v>
+      </c>
+      <c r="AA62" s="5">
+        <f t="shared" si="9"/>
+        <v>1520.3549102920967</v>
+      </c>
+      <c r="AB62" s="10">
+        <f t="shared" si="10"/>
+        <v>0.56909694010553258</v>
+      </c>
+      <c r="AC62" s="10">
+        <f t="shared" si="11"/>
+        <v>0.79534513076738556</v>
+      </c>
+      <c r="AD62" s="9"/>
+      <c r="AE62" s="9"/>
+      <c r="AF62" s="9"/>
+      <c r="AG62" s="9"/>
+      <c r="AH62" s="9"/>
+      <c r="AI62" s="9"/>
+      <c r="AJ62" s="9"/>
+      <c r="AK62" s="9"/>
+      <c r="AL62" s="9"/>
+      <c r="AM62" s="9"/>
+      <c r="AN62" s="9"/>
+      <c r="AO62" s="9"/>
+      <c r="AP62" s="9"/>
+      <c r="AQ62" s="9"/>
+      <c r="AR62" s="9"/>
+      <c r="AS62" s="9"/>
+      <c r="AT62" s="9"/>
+    </row>
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q63" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R63" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S63" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T63" s="9">
+        <v>1</v>
+      </c>
+      <c r="U63" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V63" s="10">
+        <v>548000000</v>
+      </c>
+      <c r="W63" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="X63" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="Y63" s="10">
+        <v>655000000</v>
+      </c>
+      <c r="Z63" s="5">
+        <f t="shared" si="8"/>
+        <v>2695.8530000000001</v>
+      </c>
+      <c r="AA63" s="5">
+        <f t="shared" si="9"/>
+        <v>4254.3275699287387</v>
+      </c>
+      <c r="AB63" s="10">
+        <f t="shared" si="10"/>
+        <v>0.49394178628963381</v>
+      </c>
+      <c r="AC63" s="10">
+        <f t="shared" si="11"/>
+        <v>0.6014157908237121</v>
+      </c>
+      <c r="AD63" s="9"/>
+      <c r="AE63" s="9"/>
+      <c r="AF63" s="9"/>
+      <c r="AG63" s="9"/>
+      <c r="AH63" s="9"/>
+      <c r="AI63" s="9"/>
+      <c r="AJ63" s="9"/>
+      <c r="AK63" s="9"/>
+      <c r="AL63" s="9"/>
+      <c r="AM63" s="9"/>
+      <c r="AN63" s="9"/>
+      <c r="AO63" s="9"/>
+      <c r="AP63" s="9"/>
+      <c r="AQ63" s="9"/>
+      <c r="AR63" s="9"/>
+      <c r="AS63" s="9"/>
+      <c r="AT63" s="9"/>
+    </row>
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9">
+        <v>11</v>
+      </c>
+      <c r="Q64" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R64" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S64" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T64" s="9">
+        <v>1</v>
+      </c>
+      <c r="U64" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V64" s="10">
+        <v>548000000</v>
+      </c>
+      <c r="W64" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="X64" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="Y64" s="10">
+        <v>655000000</v>
+      </c>
+      <c r="Z64" s="5">
+        <f t="shared" si="8"/>
+        <v>6805.9769999999999</v>
+      </c>
+      <c r="AA64" s="5">
+        <f t="shared" si="9"/>
+        <v>1318.840251512305</v>
+      </c>
+      <c r="AB64" s="10">
+        <f t="shared" si="10"/>
+        <v>0.55584494991903499</v>
+      </c>
+      <c r="AC64" s="10">
+        <f t="shared" si="11"/>
+        <v>0.77829969618215133</v>
+      </c>
+      <c r="AD64" s="9"/>
+      <c r="AE64" s="9"/>
+      <c r="AF64" s="9"/>
+      <c r="AG64" s="9"/>
+      <c r="AH64" s="9"/>
+      <c r="AI64" s="9"/>
+      <c r="AJ64" s="9"/>
+      <c r="AK64" s="9"/>
+      <c r="AL64" s="9"/>
+      <c r="AM64" s="9"/>
+      <c r="AN64" s="9"/>
+      <c r="AO64" s="9"/>
+      <c r="AP64" s="9"/>
+      <c r="AQ64" s="9"/>
+      <c r="AR64" s="9"/>
+      <c r="AS64" s="9"/>
+      <c r="AT64" s="9"/>
+    </row>
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9">
+        <v>12</v>
+      </c>
+      <c r="Q65" s="10">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="R65" s="9">
+        <v>21972.1</v>
+      </c>
+      <c r="S65" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T65" s="9">
+        <v>1</v>
+      </c>
+      <c r="U65" s="10">
+        <v>950000000</v>
+      </c>
+      <c r="V65" s="10">
+        <v>548000000</v>
+      </c>
+      <c r="W65" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="X65" s="10">
+        <v>1100000000</v>
+      </c>
+      <c r="Y65" s="10">
+        <v>655000000</v>
+      </c>
+      <c r="Z65" s="5">
+        <f t="shared" si="8"/>
+        <v>6806.0990000000002</v>
+      </c>
+      <c r="AA65" s="5">
+        <f t="shared" si="9"/>
+        <v>1318.861164957616</v>
+      </c>
+      <c r="AB65" s="10">
+        <f t="shared" si="10"/>
+        <v>0.55584437063482528</v>
+      </c>
+      <c r="AC65" s="10">
+        <f t="shared" si="11"/>
+        <v>0.77829843751816896</v>
+      </c>
+      <c r="AD65" s="9"/>
+      <c r="AE65" s="9"/>
+      <c r="AF65" s="9"/>
+      <c r="AG65" s="9"/>
+      <c r="AH65" s="9"/>
+      <c r="AI65" s="9"/>
+      <c r="AJ65" s="9"/>
+      <c r="AK65" s="9"/>
+      <c r="AL65" s="9"/>
+      <c r="AM65" s="9"/>
+      <c r="AN65" s="9"/>
+      <c r="AO65" s="9"/>
+      <c r="AP65" s="9"/>
+      <c r="AQ65" s="9"/>
+      <c r="AR65" s="9"/>
+      <c r="AS65" s="9"/>
+      <c r="AT65" s="9"/>
+    </row>
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
+      <c r="AA66" s="9"/>
+      <c r="AB66" s="9"/>
+      <c r="AC66" s="9"/>
+      <c r="AD66" s="9"/>
+      <c r="AE66" s="9"/>
+      <c r="AF66" s="9"/>
+      <c r="AG66" s="9"/>
+      <c r="AH66" s="9"/>
+      <c r="AI66" s="9"/>
+      <c r="AJ66" s="9"/>
+      <c r="AK66" s="9"/>
+      <c r="AL66" s="9"/>
+      <c r="AM66" s="9"/>
+      <c r="AN66" s="9"/>
+      <c r="AO66" s="9"/>
+      <c r="AP66" s="9"/>
+      <c r="AQ66" s="9"/>
+      <c r="AR66" s="9"/>
+      <c r="AS66" s="9"/>
+      <c r="AT66" s="9"/>
+    </row>
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
+      <c r="Y67" s="9"/>
+      <c r="Z67" s="9"/>
+      <c r="AA67" s="9"/>
+      <c r="AB67" s="9"/>
+      <c r="AC67" s="9"/>
+      <c r="AD67" s="9"/>
+      <c r="AE67" s="9"/>
+      <c r="AF67" s="9"/>
+      <c r="AG67" s="9"/>
+      <c r="AH67" s="9"/>
+      <c r="AI67" s="9"/>
+      <c r="AJ67" s="9"/>
+      <c r="AK67" s="9"/>
+      <c r="AL67" s="9"/>
+      <c r="AM67" s="9"/>
+      <c r="AN67" s="9"/>
+      <c r="AO67" s="9"/>
+      <c r="AP67" s="9"/>
+      <c r="AQ67" s="9"/>
+      <c r="AR67" s="9"/>
+      <c r="AS67" s="9"/>
+      <c r="AT67" s="9"/>
+    </row>
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
+      <c r="AB68" s="9"/>
+      <c r="AC68" s="9"/>
+      <c r="AD68" s="9"/>
+      <c r="AE68" s="9"/>
+      <c r="AF68" s="9"/>
+      <c r="AG68" s="9"/>
+      <c r="AH68" s="9"/>
+      <c r="AI68" s="9"/>
+      <c r="AJ68" s="9"/>
+      <c r="AK68" s="9"/>
+      <c r="AL68" s="9"/>
+      <c r="AM68" s="9"/>
+      <c r="AN68" s="9"/>
+      <c r="AO68" s="9"/>
+      <c r="AP68" s="9"/>
+      <c r="AQ68" s="9"/>
+      <c r="AR68" s="9"/>
+      <c r="AS68" s="9"/>
+      <c r="AT68" s="9"/>
+    </row>
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="9"/>
+      <c r="AB69" s="9"/>
+      <c r="AC69" s="9"/>
+      <c r="AD69" s="9"/>
+      <c r="AE69" s="9"/>
+      <c r="AF69" s="9"/>
+      <c r="AG69" s="9"/>
+      <c r="AH69" s="9"/>
+      <c r="AI69" s="9"/>
+      <c r="AJ69" s="9"/>
+      <c r="AK69" s="9"/>
+      <c r="AL69" s="9"/>
+      <c r="AM69" s="9"/>
+      <c r="AN69" s="9"/>
+      <c r="AO69" s="9"/>
+      <c r="AP69" s="9"/>
+      <c r="AQ69" s="9"/>
+      <c r="AR69" s="9"/>
+      <c r="AS69" s="9"/>
+      <c r="AT69" s="9"/>
+    </row>
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="9"/>
+      <c r="AB70" s="9"/>
+      <c r="AC70" s="9"/>
+      <c r="AD70" s="9"/>
+      <c r="AE70" s="9"/>
+      <c r="AF70" s="9"/>
+      <c r="AG70" s="9"/>
+      <c r="AH70" s="9"/>
+      <c r="AI70" s="9"/>
+      <c r="AJ70" s="9"/>
+      <c r="AK70" s="9"/>
+      <c r="AL70" s="9"/>
+      <c r="AM70" s="9"/>
+      <c r="AN70" s="9"/>
+      <c r="AO70" s="9"/>
+      <c r="AP70" s="9"/>
+      <c r="AQ70" s="9"/>
+      <c r="AR70" s="9"/>
+      <c r="AS70" s="9"/>
+      <c r="AT70" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
